--- a/static/templates/webinars_template.xlsx
+++ b/static/templates/webinars_template.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/makar/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/makar/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11604C9A-AEA0-584C-9AE2-E49FC213DB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A318B7-2E1C-F540-9BE7-E479455A2775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="1000" windowWidth="27840" windowHeight="16340" xr2:uid="{372A815D-B1BD-C94E-A230-17B05561CD05}"/>
+    <workbookView xWindow="2420" yWindow="500" windowWidth="26380" windowHeight="17360" xr2:uid="{5BF7685B-4308-F64F-95C8-C5D674AFE397}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,12 +35,1518 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="497">
+  <si>
+    <t>название вебинара</t>
+  </si>
+  <si>
+    <t>ссылка на вебинар</t>
+  </si>
+  <si>
+    <t>дата вебинара</t>
+  </si>
+  <si>
+    <t>номера заданий</t>
+  </si>
+  <si>
+    <t>номер дз</t>
+  </si>
+  <si>
+    <t>категория</t>
+  </si>
+  <si>
+    <t>категория курса</t>
+  </si>
+  <si>
+    <t>комментарий</t>
+  </si>
+  <si>
+    <t>(ролик) Python для начинающих. Занятие 1: Введение. Переменная, операторы, линейные алгоритмы.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/27742</t>
+  </si>
+  <si>
+    <t>Python с нуля</t>
+  </si>
+  <si>
+    <t>(ролик) Python для начинающих. Занятие 2: Операторы условия</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/27743</t>
+  </si>
+  <si>
+    <t>(ролик) Python для начинающих. Занятие 3: Цикл WHILE</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/27744</t>
+  </si>
+  <si>
+    <t>(ролик) Что такое функция в Python?</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/29276</t>
+  </si>
+  <si>
+    <t>(ролик) Python для начинающих. Занятие 4: Цикл FOR</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/27745</t>
+  </si>
+  <si>
+    <t>(ролик) Python для начинающих. Занятие 5: Вложенные циклы</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/27746</t>
+  </si>
+  <si>
+    <t>2, 8</t>
+  </si>
+  <si>
+    <t>(ролик) Python для начинающих. Занятие 6: Переборные алгоритмы</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/27747</t>
+  </si>
+  <si>
+    <t>5, 15</t>
+  </si>
+  <si>
+    <t>(ролик) Python для начинающих. Занятие 7: Списки</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/27748</t>
+  </si>
+  <si>
+    <t>(ролик) Python для начинающих. Занятие 8: Строки</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/27749</t>
+  </si>
+  <si>
+    <t>5, 24</t>
+  </si>
+  <si>
+    <t>(ролик) Python для начинающих. Занятие 9: Генераторы списков</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/27750</t>
+  </si>
+  <si>
+    <t>(№7) Кодирование информации. Изображения. Задание 7</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26083</t>
+  </si>
+  <si>
+    <t>руками</t>
+  </si>
+  <si>
+    <t>(№7, №11) Кодирование информации. Звук и пароли. Задания 7 и 11</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26084</t>
+  </si>
+  <si>
+    <t>7, 11</t>
+  </si>
+  <si>
+    <t>(№8) Комбинаторика. Подсчёт слов</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26085</t>
+  </si>
+  <si>
+    <t>(№9) Электронные таблицы. Задание 9. Подсчёт количества строк</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26086</t>
+  </si>
+  <si>
+    <t>таблицы</t>
+  </si>
+  <si>
+    <t>(№8) Комбинаторика. Программирование</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26087</t>
+  </si>
+  <si>
+    <t>прогой</t>
+  </si>
+  <si>
+    <t>(№3) Электронные таблицы. Задание 3.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26088</t>
+  </si>
+  <si>
+    <t>(ролик) Основы алгебры логики. Теория</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/27486</t>
+  </si>
+  <si>
+    <t>2, 15</t>
+  </si>
+  <si>
+    <t>РОЛИК</t>
+  </si>
+  <si>
+    <t>(№15) Алгебра логики. Задание 15. Отрезки, множества, неравенства. Решение на бумаге</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26089</t>
+  </si>
+  <si>
+    <t>Анализ алгоритмов и поиск ошибок в программе. Анализ функций и системы счисления.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26097</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26090</t>
+  </si>
+  <si>
+    <t>(№2, №5, №14) Программирование. Переборные решения. Задания 2, 5, 14.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26091</t>
+  </si>
+  <si>
+    <t>2, 5, 14</t>
+  </si>
+  <si>
+    <t>(№1, №4, №13) Базовые задания. Задания 1 и 4. IP-адресация, задание 13.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26092</t>
+  </si>
+  <si>
+    <t>1, 4, 13</t>
+  </si>
+  <si>
+    <t>(№24) Программирование. Задание 24. Решения проходом по строке.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26093</t>
+  </si>
+  <si>
+    <t>(№14) Системы счисления. Свойства чисел и операции.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26094</t>
+  </si>
+  <si>
+    <t>(№16, №23) Задания 16 и 23. Рекурсия и динамическое программирование.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26095</t>
+  </si>
+  <si>
+    <t>16, 23</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26096</t>
+  </si>
+  <si>
+    <t>(№15) Задание 15. Программные решения. ДЕЛ, конъюнкция, неравенства, отрезки.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26098</t>
+  </si>
+  <si>
+    <t>(№17) Задание 17: от простейших задач и до предела. Пары, тройки.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26099</t>
+  </si>
+  <si>
+    <t>(№18, №22) Электронные таблицы. Задание 18: робот, ладья. Задание 22: процессы.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26100</t>
+  </si>
+  <si>
+    <t>18, 22</t>
+  </si>
+  <si>
+    <t>(№25) Программирование. Задание 25. Поиск делителей, маски.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26101</t>
+  </si>
+  <si>
+    <t>(№6, №8) Программирование. Модули. Задание 8 (itertools). Задание 6 (turtle).</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26103</t>
+  </si>
+  <si>
+    <t>6, 8</t>
+  </si>
+  <si>
+    <t>(ролик) Задание 15. Метод СКОВОРОДКИ! Уничтожаем ЕГЭ по информатике 2025</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/27621</t>
+  </si>
+  <si>
+    <t>(№3, №9) Прогон по электронным таблицам. Задания 3 и 9.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26104</t>
+  </si>
+  <si>
+    <t>3, 9</t>
+  </si>
+  <si>
+    <t>(№18, №22) Прогон по электронным таблицам. Задания 18 и 22.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26105</t>
+  </si>
+  <si>
+    <t>(№1, №4, №10, №13) Прогон по базовым заданиям. Задания 1, 4, 10, 13.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26106</t>
+  </si>
+  <si>
+    <t>1, 4, 10, 13</t>
+  </si>
+  <si>
+    <t>(№5, №12, №14) Программирование. Переборные решения. Задания 5, 12, 14.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26107</t>
+  </si>
+  <si>
+    <t>5, 12, 14</t>
+  </si>
+  <si>
+    <t>(№2, №8, №13) Программирование. Использование модулей. Задания 2, 8, 13.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26108</t>
+  </si>
+  <si>
+    <t>2, 8, 13</t>
+  </si>
+  <si>
+    <t>13-е прогой</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/27358</t>
+  </si>
+  <si>
+    <t>ОТКРЫТЫЙ ВЕБ, таблицы</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26109</t>
+  </si>
+  <si>
+    <t>(№24) Программирование. Задание 24. Нестандартные приёмы и решения.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26110</t>
+  </si>
+  <si>
+    <t>(№7) Кодирование информации. Задание 7. Изображения, звук, передача данных.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26111</t>
+  </si>
+  <si>
+    <t>(№25) Программирование. Задание 25.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26112</t>
+  </si>
+  <si>
+    <t>(№5, №6) Программирование. Задания 5 и 6.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26113</t>
+  </si>
+  <si>
+    <t>5, 6</t>
+  </si>
+  <si>
+    <t>(№14) Системы счисления. Всё, что нужно знать для ЕГЭ.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26114</t>
+  </si>
+  <si>
+    <t>(№15) Алгебра логики. Задание 15. Решение на бумаге.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26115</t>
+  </si>
+  <si>
+    <t>(№8) Комбинаторика. Задание 8. Решение на бумаге + программирование.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26116</t>
+  </si>
+  <si>
+    <t>(№24, №25) Программирование. Пишем однострочники. Задания 24 и 25.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26117</t>
+  </si>
+  <si>
+    <t>24, 25</t>
+  </si>
+  <si>
+    <t>(№8, №12, №17) Плюшки и фишки в проге. Задания 8, 12, 17.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26118</t>
+  </si>
+  <si>
+    <t>8, 12, 17</t>
+  </si>
+  <si>
+    <t>(№13) IP-адреса. Задание 13. Решение на бумаге. Нестандартные задачи.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26119</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26120</t>
+  </si>
+  <si>
+    <t>(№17) Программирование. Задание 17. Максимальный нестандарт.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26121</t>
+  </si>
+  <si>
+    <t>(№18, №22) Электронные таблицы. Задание 18 (нестандарт), задание 22.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26123</t>
+  </si>
+  <si>
+    <t>(№24) Программирование. Задание 24. Сложные задачи проходом по строке.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26124</t>
+  </si>
+  <si>
+    <t>(№ 2, №5, №6, №8) Прогон по базовой проге. Задания 2, 5, 6, 8.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26125</t>
+  </si>
+  <si>
+    <t>2, 5, 6, 8</t>
+  </si>
+  <si>
+    <t>(№25) Программирование. Задание 25. Совмещённые задачи.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26126</t>
+  </si>
+  <si>
+    <t>(№7, №11) Кодирование информации. Приколы в заданиях 7 и 11.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26127</t>
+  </si>
+  <si>
+    <t>(№12) Задание 12. Решение на бумаге. От простых задач до харда. Робот, чертёжник, редактор.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26122</t>
+  </si>
+  <si>
+    <t>(№9) Программирование. Задание 9.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/28312</t>
+  </si>
+  <si>
+    <t>9-е прогой</t>
+  </si>
+  <si>
+    <t>(№24) Программирование. Задание 24. Дополнительные методы решения.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/28313</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/28314</t>
+  </si>
+  <si>
+    <t>(№8) Комбинаторика. Задание 8. Решение на бумаге</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/28968</t>
+  </si>
+  <si>
+    <t>(№16, №23) Программирование, рекурсия. Задания 16 и 23</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/28969</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/28970</t>
+  </si>
+  <si>
+    <t>(№3, №9) Электронные таблицы. Задания 3 и 9</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/28971</t>
+  </si>
+  <si>
+    <t>(№9) Программирование. Задание 9</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/28972</t>
+  </si>
+  <si>
+    <t>(№13) Программирование. Задание 13 (ipaddress)</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/28973</t>
+  </si>
+  <si>
+    <t>(№4, №11) Кодирование информации. Задания 4 и 11</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/28974</t>
+  </si>
+  <si>
+    <t>4, 11</t>
+  </si>
+  <si>
+    <t>(№7) Кодирование информации. Задание 7</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/28975</t>
+  </si>
+  <si>
+    <t>(№18, №22) Электронные таблицы. Задания 18 и 22</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/28976</t>
+  </si>
+  <si>
+    <t>(№15) Алгебра логики. Задание 15. Решение на бумаге сложных задач</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/28977</t>
+  </si>
+  <si>
+    <t>(№8, №25) Переборные алгоритмы. Задания 8 и 25</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/28978</t>
+  </si>
+  <si>
+    <t>8, 25</t>
+  </si>
+  <si>
+    <t>(№24) Программирование. Задание 24.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/28979</t>
+  </si>
+  <si>
+    <t>(№16, №23) Программирование. Рекурсия. Задания 16, 23</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/29841</t>
+  </si>
+  <si>
+    <t>(№1, №6, №12) Базовые задачи + прога. Задания 1, 6, 12</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/29842</t>
+  </si>
+  <si>
+    <t>1, 6, 12</t>
+  </si>
+  <si>
+    <t>(№13, №17) Программирование. Задания 13 (ipaddress), задание 17</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/29843</t>
+  </si>
+  <si>
+    <t>13, 17</t>
+  </si>
+  <si>
+    <t>(№2, №5, №10) Программирование. Задания 2, 5, 10</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/29844</t>
+  </si>
+  <si>
+    <t>2, 5, 10</t>
+  </si>
+  <si>
+    <t>(№3,№22) Электронные таблицы. Задания 3, 22</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/29845</t>
+  </si>
+  <si>
+    <t>3, 22</t>
+  </si>
+  <si>
+    <t>(№24) Программирование. Задание 24</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/29846</t>
+  </si>
+  <si>
+    <t>(№26) Программирование. Задание 26. Элементарные задачи.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26128</t>
+  </si>
+  <si>
+    <t>(№26) Программирование. Задание 26. Основы построения моделей</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26129</t>
+  </si>
+  <si>
+    <t>(№26) Программирование. Задание 26. Современные задачи.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26130</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26135</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26131</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26132</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26139</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26141</t>
+  </si>
+  <si>
+    <t>Программирование. Задание 26. Современные задачи.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26142</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/28320</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/28988</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/28989</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/28990</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/28991</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/29847</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/29851</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/29849</t>
+  </si>
+  <si>
+    <t>Основы эффективных решений. Поиск макс / мин пары.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26145</t>
+  </si>
+  <si>
+    <t>Основы эффективных решений. Поиск количества пар / троек.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26146</t>
+  </si>
+  <si>
+    <t>Динамическое программирование. Поиск макс / мин пары.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26147</t>
+  </si>
+  <si>
+    <t>Динамическое программирование. Поиск количества пар / троек.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26148</t>
+  </si>
+  <si>
+    <t>Динамическое программирование. Использование списков. Время.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26149</t>
+  </si>
+  <si>
+    <t>Динамическое программирование. Использование списков. Часть 2.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26150</t>
+  </si>
+  <si>
+    <t>Звёзды и кластеры. Часть 1.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26162</t>
+  </si>
+  <si>
+    <t>Звёзды и кластеры. Часть 2.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26163</t>
+  </si>
+  <si>
+    <t>Звезды и кластеры. Часть 3.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26164</t>
+  </si>
+  <si>
+    <t>Динамическое программирование. Поиск подпоследовательностей.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26151</t>
+  </si>
+  <si>
+    <t>Пары и тройки чисел. Задачи на поиск некратной суммы.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26152</t>
+  </si>
+  <si>
+    <t>Пары чисел. Задачи на поиск кратной суммы.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26153</t>
+  </si>
+  <si>
+    <t>Динамическое программирование. Задания на время.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26154</t>
+  </si>
+  <si>
+    <t>Задания на кластеризацию.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26627</t>
+  </si>
+  <si>
+    <t>Задания на круговое движение. Часть 1.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26157</t>
+  </si>
+  <si>
+    <t>Тройки чисел. Нестандартные задачи.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26156</t>
+  </si>
+  <si>
+    <t>Задания на круговое движение. Часть 2.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26158</t>
+  </si>
+  <si>
+    <t>Задания на линейное движение</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26159</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26628</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26629</t>
+  </si>
+  <si>
+    <t>Нестандартные задания. Задачи прошлых лет.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26160</t>
+  </si>
+  <si>
+    <t>Пары и тройки чисел. Задачи на поиск кратной суммы.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26161</t>
+  </si>
+  <si>
+    <t>Динамическое программирование. Двумерные списки.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26165</t>
+  </si>
+  <si>
+    <t>Задания на кластеризацию. Повторение материала.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/28322</t>
+  </si>
+  <si>
+    <t>кластеры</t>
+  </si>
+  <si>
+    <t>Задания на кластеризацию. Метод dbscan.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/28323</t>
+  </si>
+  <si>
+    <t>Задания на кластеризацию. Функции.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/28325</t>
+  </si>
+  <si>
+    <t>Динамическое программирование. Пары и тройки.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/28326</t>
+  </si>
+  <si>
+    <t>Динамическое программирование. Префиксные суммы.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/28327</t>
+  </si>
+  <si>
+    <t>Задания на кластеризацию. Метод dbscan (дополнительный вебинар)</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/29075</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/28328</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/28329</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/28980</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/28981</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/28983</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/28984</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/28985</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/28986</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/28987</t>
+  </si>
+  <si>
+    <t>Кластеризация. DBSCAN</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/29850</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/29852</t>
+  </si>
+  <si>
+    <t>Кластеризация. Функции</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/29853</t>
+  </si>
+  <si>
+    <t>хард прога</t>
+  </si>
+  <si>
+    <t>основной курс</t>
+  </si>
+  <si>
+    <t>задание 27</t>
+  </si>
+  <si>
+    <t>12, 14</t>
+  </si>
+  <si>
+    <t>8, 17</t>
+  </si>
+  <si>
+    <t>ссылка на обложку</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/2024-%D0%A1%D1%82%D0%B0%D1%80%D1%82%D0%93%D0%9A-%D0%95%D0%93%D0%AD-%D0%91%D1%83__4kl8p.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%9E%D1%81%D0%BD%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9-2024-09-17__4iwnr.png</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%9E%D1%81%D0%BD%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9-2024-09-18__4iwns.png</t>
+  </si>
+  <si>
+    <t>(№19, 20, 21) Теория игр. Задания на камушки. 1 и 2 кучи. Решение на бумаге.</t>
+  </si>
+  <si>
+    <t>19, 20, 21</t>
+  </si>
+  <si>
+    <t>(№19, 20, 21) Теория игр. Задания на камушки. Программное решение.</t>
+  </si>
+  <si>
+    <t>Как переиграть и уничтожить теорию игр | Задания 19, 20, 21 | ЕГЭ по информатике</t>
+  </si>
+  <si>
+    <t>(№16, №19, 20, 21) Рекурсия и теория игр. Задания 16 и 19, 20, 21.</t>
+  </si>
+  <si>
+    <t>16, 19, 20, 21</t>
+  </si>
+  <si>
+    <t>(№19, 20, 21) Теория игр. Разные методы решения одной задачи.</t>
+  </si>
+  <si>
+    <t>(№19, 20, 21) Теория игр. Задания 19, 20, 21</t>
+  </si>
+  <si>
+    <t>прогой, руками</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/maxresdefault%20(52)%20(1)__57l41.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/maxresdefault%20(53)%20(1)__57l3z.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/maxresdefault%20(54)%20(1)__57l3v.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/maxresdefault%20(55)%20(1)__57l3s.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/maxresdefault%20(56)%20(1)__57l3n.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/maxresdefault%20(57)%20(1)__57l3h.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/maxresdefault%20(58)%20(1)__57l3g.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/maxresdefault%20(59)%20(1)__57l3d.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/maxresdefault%20(60)%20(1)__57l3b.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%91%D0%A3_%D0%A0%D0%BE%D0%BB%D0%B8%D0%BA_11.02.2025__5stks.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%9E%D1%81%D0%BD%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9-2024-09-23__4iwny.png</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%9E%D1%81%D0%BD%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9-2024-09-24__4iwo1.png</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%9E%D1%81%D0%BD%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9-2024-09-25__4iwo3.png</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%9E%D1%81%D0%BD%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9-2024-09-30__4iwoa.png</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%9E%D1%81%D0%BD%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9-2024-10-01__4qxcp.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%9E%D1%81%D0%BD%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9-2024-10-02__4qxcs.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%9E%D1%81%D0%BD%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9-%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%9F%D1%80%D0%BE%D0%B3%D0%B0-2024-10-07__4qxcw.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%9E%D1%81%D0%BD%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9-2024-10-08__4qxcy.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%9E%D1%81%D0%BD%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9-2024-10-09__4qxd1.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%9E%D1%81%D0%BD%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9-2024-10-14__4qxd5.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%9E%D1%81%D0%BD%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9-2024-10-15__4qxd6.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%9E%D1%81%D0%BD%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9-2024-10-16__4qxd9.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%9E%D1%81%D0%BD%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9-2024-10-21__4qxdc.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%9E%D1%81%D0%BD%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9-2024-10-22__4qxdg.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%9E%D1%81%D0%BD%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9-2024-10-23__4qxdk.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%9E%D1%81%D0%BD%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9-2024-10-28__4qxdo.jpg</t>
+  </si>
+  <si>
+    <t>Программирование. Задание 25. Нестандартные задачи.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26102</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%9E%D1%81%D0%BD%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9-2024-10-29__4qxdq.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%9E%D1%81%D0%BD%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9-2024-10-30__4qxdt.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%9E%D1%81%D0%BD%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9-2024-11-12__4zvne.png</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%9E%D1%81%D0%BD%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9-2024-11-13__4zvko.png</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%9E%D1%81%D0%BD%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9-2024-11-11__4zvl9.png</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%9E%D1%81%D0%BD%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9-2024-11-18__4zvls.png</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%9E%D1%81%D0%BD%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9-2024-11-19__4zvkt.png</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%9E%D1%81%D0%BD%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9-2024-11-20__4zvn6.png</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%9E%D1%81%D0%BD%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9-2024-11-25__4zvo4.png</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%9E%D1%81%D0%BD%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9-2024-11-26__4zvm9.png</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%9E%D1%81%D0%BD%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9-2024-11-27__4zvod.png</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%9E%D1%81%D0%BD%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9-2024-12-16-01__58p2q.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%9E%D1%81%D0%BD%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9-2024-12-17__58p3s.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%9E%D1%81%D0%BD%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9-2024-12-18-01__58p42.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%9E%D1%81%D0%BD%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9-2024-12-21-01__58p32.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%9E%D1%81%D0%BD%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9-2024-12-24__58p54.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%9E%D1%81%D0%BD%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9-2024-12-25__58p36.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%9E%D1%81%D0%BD%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9-2025-02-03__5ontf.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%9E%D1%81%D0%BD%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9-2025-02-04__5onti.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%9E%D1%81%D0%BD%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9-2025-02-05__5ontl.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%9E%D1%81%D0%BD%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9-2025-02-10__5ontm.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%9E%D1%81%D0%BD%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9-2025-02-11__5ontn.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%9E%D1%81%D0%BD%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9-2025-02-12__5onto.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%9E%D1%81%D0%BD%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9-2025-02-17__5ontq.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%9E%D1%81%D0%BD%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9-2025-02-18__5ontv.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%9E%D1%81%D0%BD%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9-2025-02-19__5onu3.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%9E%D1%81%D0%BD%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9-2025-02-24__5onu7.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%9E%D1%81%D0%BD%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9-2025-02-25__5onu9.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%9E%D1%81%D0%BD%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9-2025-02-26__5onud.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%9E%D1%81%D0%BD%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9-2025-03-10__5z8u1.png</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%9F%D1%80%D0%BE%D0%B3%D0%B0-2024-10-18__4qxew.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%9F%D1%80%D0%BE%D0%B3%D0%B0-2024-10-23__4qxey.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%9F%D1%80%D0%BE%D0%B3%D0%B0-2024-11-01__4zvpy.png</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-27-2024-09-23__4iwnj.png</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-27-2024-09-25__4iwnl.png</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-27-2024-09-30__4iwnm.png</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-27-2024-10-02__4qxe5.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-27-2024-10-07__4qxe7.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-27-2024-10-09__4qxe8.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-27-2024-10-14__4qxea.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-27-2024-10-16__4qxef.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-27-2024-10-21__4qxeg.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-27-2024-10-23__4qxel.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-27-2024-10-28__4qxeo.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-27-2024-10-30__4qxep.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-27-2024-11-13__4zvsn.png</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-27-2024-11-11__4zvsh.png</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-27-2024-11-18__4zvsu.png</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-27-2024-11-20__4zvsz.png</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-27-2024-11-25__4zvt4.png</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-27-2024-11-27__4zvt6.png</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-27-2024-12-16-02__58p67.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-27-2024-12-18-02__58p6c.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-27-2024-12-21-02__58p6i.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-27-2025-02-03__5onuj.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-27-2025-02-05__5onuk.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-27-2025-02-10__5onul.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-27-2025-02-12__5onup.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-27-2025-02-17__5onuq.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-27-2025-02-19__5onus.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-27-2025-02-24__5onut.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-27-2025-02-26__5onuv.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-27-2025-03-10__5z8u5.png</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/28982</t>
+  </si>
+  <si>
+    <t>Разбор пробника №1</t>
+  </si>
+  <si>
+    <t>Разбор пробника №2</t>
+  </si>
+  <si>
+    <t>Разбор пробника №3</t>
+  </si>
+  <si>
+    <t>Разбор пробника №4</t>
+  </si>
+  <si>
+    <t>Разбор пробника №5</t>
+  </si>
+  <si>
+    <t>Разбор пробника №6</t>
+  </si>
+  <si>
+    <t>Разбор пробника №7</t>
+  </si>
+  <si>
+    <t>Разбор пробника №9</t>
+  </si>
+  <si>
+    <t>Разбор пробника №10</t>
+  </si>
+  <si>
+    <t>Разбор пробника №11</t>
+  </si>
+  <si>
+    <t>Разбор пробника №14</t>
+  </si>
+  <si>
+    <t>Разбор пробника №15</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26167</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26169</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26171</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26173</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26175</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26177</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26179</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/28316</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/28318</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/28993</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/28995</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/29854</t>
+  </si>
+  <si>
+    <t>Разбор пробника</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/29855</t>
+  </si>
+  <si>
+    <t>разбор пробников</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%9E%D1%81%D0%BD%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9-2024-09-28__4iwo9.png</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%9E%D1%81%D0%BD%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9-2024-10-12__566gb.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%9E%D1%81%D0%BD%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9-2024-10-26__566g0.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-27-2024-11-09__4zvty.png</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-27-2024-11-23__4zvub.png</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%92%D0%B5%D0%B1-2024-12-07__58p6t.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%92%D0%B5%D0%B1-2024-12-21__58p70.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%92%D0%B5%D0%B1-2025-01-18__5egtq.png</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%92%D0%B5%D0%B1-2025-02-08__5onve.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%92%D0%B5%D0%B1-2025-02-22__5onvi.jpg</t>
+  </si>
+  <si>
+    <t>(№7) Большая нарешка. Задание 7.</t>
+  </si>
+  <si>
+    <t>(№8) Большая нарешка. Задание 8.</t>
+  </si>
+  <si>
+    <t>(№3, №9, №18, №22) Большая нарешка. Задания 3, 9, 18, 22.</t>
+  </si>
+  <si>
+    <t>(№4, №11) Большая нарешка. Кодирование. Задания 4 и 11.</t>
+  </si>
+  <si>
+    <t>(№15) Большая нарешка. Алгебра логики. Задание 15.</t>
+  </si>
+  <si>
+    <t>(№17) Большая нарешка. Задание 17.</t>
+  </si>
+  <si>
+    <t>(№24, №25) Большая нарешка. Задания 24 и 25.</t>
+  </si>
+  <si>
+    <t>(№11) Большая нарешка. Задание 11. Часть 1.</t>
+  </si>
+  <si>
+    <t>(№13) Большая нарешка. Задание 13.</t>
+  </si>
+  <si>
+    <t>(№15) Большая нарешка. Задание 15.</t>
+  </si>
+  <si>
+    <t>(№9) Большая нарешка. Задание 9.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26166</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26168</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26170</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26172</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/28992</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26176</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26178</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/28274</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/28315</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/28317</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/28994</t>
+  </si>
+  <si>
+    <t>3, 9, 18, 22</t>
+  </si>
+  <si>
+    <t>нарешка</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%9E%D1%81%D0%BD%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9-2024-09-21__4iwnw.png</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%9E%D1%81%D0%BD%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9-2024-2024-10-05__566gg.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%9E%D1%81%D0%BD%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9-2024-10-19__566g9.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-27-2024-11-04__4zvtv.png</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-27-2024-11-16__4zvu5.png</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-27-2024-11-30__4zvuf.png</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%92%D0%B5%D0%B1-2024-12-14__58p6x.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/2024-%D0%95%D0%93%D0%AD-%D0%9E%D1%82%D0%BA%D1%80%D1%8B%D1%82%D1%8B%D0%B9%D0%92%D0%B5%D0%B1-19.12__5db65.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%92%D0%B5%D0%B1-2025-01-11__5egto.png</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%92%D0%B5%D0%B1-2025-01-25__5egtv.png</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%92%D0%B5%D0%B1-2025-02-15__5onvg.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%92%D0%B5%D0%B1-2025-03-08__5z8ty.png</t>
+  </si>
+  <si>
+    <t>Базовые задания ЕГЭ по информатике. 1, 3, 4, 10, 13.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/30085</t>
+  </si>
+  <si>
+    <t>1, 3, 4, 10, 13</t>
+  </si>
+  <si>
+    <t>мини-щелчок</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/30086</t>
+  </si>
+  <si>
+    <t>Базовые задания ЕГЭ по информатике. 7, 8, 11. Алгебра логики, задание 15</t>
+  </si>
+  <si>
+    <t>7, 8, 11, 15</t>
+  </si>
+  <si>
+    <t>Программирование. Переборные алгоритмы. Задания 2, 5, 6, 8, 12, 14.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/30087</t>
+  </si>
+  <si>
+    <t>2, 5, 6, 8, 12, 14</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/30088</t>
+  </si>
+  <si>
+    <t>Электронные таблицы. Задания 3, 9, 18, 22.</t>
+  </si>
+  <si>
+    <t>Программирование. Задания 9, 17, 24, 25</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/30089</t>
+  </si>
+  <si>
+    <t>9, 17, 24, 25</t>
+  </si>
+  <si>
+    <t>Программирование. Задания 16, 23. Теория игр, задания 19, 20, 21</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/30090</t>
+  </si>
+  <si>
+    <t>16, 19, 20, 21, 23</t>
+  </si>
+  <si>
+    <t>Программирование. Задания 26, 27</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/30091</t>
+  </si>
+  <si>
+    <t>26, 27</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/2025-%D0%9C%D0%B8%D0%BD%D0%B8-%D1%89%D0%B5%D0%BB%D1%87%D0%BE%D0%BA-%D0%95%D0%93%D0%AD-%D0%98%D0%9D%D0%A4-01__69y07.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/2025-%D0%9C%D0%B8%D0%BD%D0%B8-%D1%89%D0%B5%D0%BB%D1%87%D0%BE%D0%BA-%D0%95%D0%93%D0%AD-%D0%98%D0%9D%D0%A4-02__69y3j.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/2025-%D0%9C%D0%B8%D0%BD%D0%B8-%D1%89%D0%B5%D0%BB%D1%87%D0%BE%D0%BA-%D0%95%D0%93%D0%AD-%D0%98%D0%9D%D0%A4-03__69y3k.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/2025-%D0%9C%D0%B8%D0%BD%D0%B8-%D1%89%D0%B5%D0%BB%D1%87%D0%BE%D0%BA-%D0%95%D0%93%D0%AD-%D0%98%D0%9D%D0%A4-04__69y3m.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/2025-%D0%9C%D0%B8%D0%BD%D0%B8-%D1%89%D0%B5%D0%BB%D1%87%D0%BE%D0%BA-%D0%95%D0%93%D0%AD-%D0%98%D0%9D%D0%A4-05__69y3q.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/2025-%D0%9C%D0%B8%D0%BD%D0%B8-%D1%89%D0%B5%D0%BB%D1%87%D0%BE%D0%BA-%D0%95%D0%93%D0%AD-%D0%98%D0%9D%D0%A4-06__69y3u.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/2025-%D0%9C%D0%B8%D0%BD%D0%B8-%D1%89%D0%B5%D0%BB%D1%87%D0%BE%D0%BA-%D0%95%D0%93%D0%AD-%D0%98%D0%9D%D0%A4-07__69y3w.jpg</t>
+  </si>
+  <si>
+    <t>🔺 Теория: 1. что такое бит 2. как устроено изображение 3. формула Хартли 4. в какую сторону округлять при дробном ответе 5. сжатые изображения (время: 01:00:00-01:10:00) 6. dpi(ppi) (время 01:11:00-01:27:00) 7. степень прозрачности  🔺 Задачи: 1.  Определить объем памяти для хранения изображения размером m*n с палитрой из К цветов.  2. Изображение размером m*n занимает в памяти I Кбайт. Определить количество цветов в палитре  3. Документы сканируются с разрешением dpi и палитрой из K цветов, размер документа - I Мбайт. Затем изменили параметры сканирования. Определить объем изображения с измененными параметрами.  4. Для хранения изображения размером m*n отведено I Кбайт. При кодировании используется i бит для определения степени прозрачности. Определить количество цветов в палитре.</t>
+  </si>
+  <si>
+    <t>№7 🔺 Теория:  кодирование звуковой информации  🔺 Задачи: 1. Файл с двухканальной звукозаписью с частотой дискретизации f кГц и i-битным разрешением занимает в памяти I Мбайт. Определить длительность записи Одноканальная звукозапись, частота дискретизации f Гц и i уровней дискретизации, длительность звукового файла t минут. Определить объем файла.  2. Звуковой файл был передан в город А за t1 с. Затем его оцифровали и передали в Б. Пропускная способность канала связи с Б в 3 раза ниже. Определить время передачи файла в город Б  №11 🔺 Теория для решения номера дана на первом вебинаре по №7.   🔺 Задачи:  1. В системе хранятся пароли пользователей. Определить объем памяти, необходимый для хранения К паролей  2. В системе хранятся пароли пользователей и доп сведения. Определить объем памяти, необходимый для хранения данных об N пользователях.  3. В системе хранятся пароли пользователей и доп сведения. Определить объем памяти, необходимый для хранения доп сведений об одном пользователе.  4. Определить максимальное количество пользователей, чьи данные можно сохранить при I байт памяти.</t>
+  </si>
+  <si>
+    <t>🔺Теория (стоит законспектировать) 1. Размещение с повторениями 2. Размещения без повторений 3. Перестановки 4. Сочетания (оливье и селедка под шубой)  ❗️ 0:28:25 - Почему нужно уметь решать №8 руками  🔺 Задачи 1️⃣ Составляются 6-буквенные слова, из букв КРОТ. Буква О используется в каждом слове ровно 1/2/3 раза. Сколько слов можно составить? 2️⃣ Составляются 6-буквенные слова, из букв КРОТ. Буквы О и У можно использовать ровно по 1 разу.  Сколько слов можно составить? 3️⃣ Составляются 4-буквенные слова из букв ЛЕТО. Буква Е используется в каждом слове хотя бы 1 раз. Сколько слов может быть составлено? 4️⃣ Составляются 5-буквенные слова из букв МУХА, буква может использовать не более 3 раз. Сколько существует таких слов, которые можно написать? 5️⃣ Составляются 5-буквенные слова из букв СЛОН. Буква О используется, но не более трёх раз.  6️⃣ Составляются слова перестановкой букв слова АДЖИКА, избегая слов с двумя подряд одинаковыми буквами.  7️⃣ Сколько существует чисел, делящихся на 5, десятичная запись которых содержит 6 цифр, причем все цифры различны и никакие две четные и две четные цифры не стоят рядом. ✨Теория вероятностей✨
+1️⃣ В колоде 36 карт. Какова вероятность того, если вытащить две карты из колоды, то эту будут две черные дамы?
+2️⃣ В колоде 36 карта. Какова вероятность того, что если вытащить 6 карта из колоды, то это будут 6 козырей?
+3️⃣ Монету подбросили 10 раз. Сколькими способами может выпасть орел?</t>
+  </si>
+  <si>
+    <t>тип решения</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26174</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="204"/>
@@ -67,8 +1573,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -84,6 +1592,1153 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1025" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68FB4F27-6BE7-255A-3C7F-914B1330BBFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16687800" y="1016000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55663741-3B68-B9C4-2B6E-AD012DCA8ED2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16687800" y="1016000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1027" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E036741D-C57C-3CDE-E0D3-E7D8503242EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16687800" y="1828800"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1028" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC3F0C80-52AD-3FD4-43F2-E8E48FCBE9CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16687800" y="1828800"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1029" name="AutoShape 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E1A28F6-F07E-3AC6-74B9-F84DF7E4EF5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16687800" y="2032000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1030" name="AutoShape 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BAAF986-DB0C-9584-91B8-B64FF88361F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16687800" y="2032000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1031" name="AutoShape 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66B25B4C-6154-5599-B6EB-AA4CBCF39A51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16687800" y="3657600"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1032" name="AutoShape 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7B470F7-160B-9EB1-373C-16350AE258FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16687800" y="4064000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1033" name="AutoShape 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ACC1031-D58C-F358-E7F7-A071CFAF5A51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16687800" y="4064000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1034" name="AutoShape 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBABE5B7-7EC1-8163-ECC3-446E0849B788}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16687800" y="5283200"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1035" name="AutoShape 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8D9E466-908B-36D9-898F-1A918DF3DA1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16687800" y="5283200"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1036" name="AutoShape 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BC48305-9FFB-AB15-64E9-809EF9FF4162}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16687800" y="3860800"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1037" name="AutoShape 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C160A0EF-6F65-4A60-19C7-A1062D364A61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16687800" y="6502400"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1038" name="AutoShape 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BA6B6CE-0138-1F0C-10E9-FA37824816AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16687800" y="7518400"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1039" name="AutoShape 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB1B9467-D2D8-033F-3411-1422668451E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16687800" y="7721600"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1040" name="AutoShape 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD57DB5D-4174-7C98-3738-709CDDB24BB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16687800" y="8128000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1041" name="AutoShape 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A7A1F69-2543-8A0F-5492-BC2FE53CAB4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16687800" y="16459200"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1042" name="AutoShape 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E362DA5-5B4B-68DD-91A0-417EE750F15D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16687800" y="21945600"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D80E45FD-526C-7453-A1C2-F82F8A9264F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16687800" y="28651200"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA11E194-FB65-35BB-7087-AB3E4F575B37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16687800" y="28651200"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="299673"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE5A97A2-F618-5340-A1B0-ECA92207CDCD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16696422" y="27928349"/>
+          <a:ext cx="304800" cy="299673"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="299673"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{028E27D4-61C8-884B-B597-D22AD1AED371}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16696422" y="27928349"/>
+          <a:ext cx="304800" cy="299673"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33525A0E-E841-8C08-6140-C9C356A5137B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16687800" y="31902400"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C27AADC8-D8A3-63DC-7670-5B992D7D49B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16687800" y="31902400"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,13 +3057,4576 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA283C32-4AB6-1449-AF01-EF533D294A72}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{812881EF-CBEA-904B-B985-6AFA5B4E17D6}">
+  <dimension ref="A1:J171"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A134" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B157" sqref="B157"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="70.83203125" customWidth="1"/>
+    <col min="2" max="2" width="36.1640625" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>495</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45597</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1">
+        <v>45597</v>
+      </c>
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45597</v>
+      </c>
+      <c r="D4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45699</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45597</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1">
+        <v>45597</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1">
+        <v>45597</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1">
+        <v>45597</v>
+      </c>
+      <c r="D9">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1">
+        <v>45597</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1">
+        <v>45597</v>
+      </c>
+      <c r="D11" t="s">
+        <v>285</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="1">
+        <v>45551</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>282</v>
+      </c>
+      <c r="I12" t="s">
+        <v>492</v>
+      </c>
+      <c r="J12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>282</v>
+      </c>
+      <c r="I13" t="s">
+        <v>493</v>
+      </c>
+      <c r="J13" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="1">
+        <v>45553</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>282</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="J14" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="1">
+        <v>45558</v>
+      </c>
+      <c r="D15">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>282</v>
+      </c>
+      <c r="I15" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="1">
+        <v>45559</v>
+      </c>
+      <c r="D16">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>282</v>
+      </c>
+      <c r="J16" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="1">
+        <v>45560</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>282</v>
+      </c>
+      <c r="I17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="1">
+        <v>45601</v>
+      </c>
+      <c r="D18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18">
+        <v>7</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>282</v>
+      </c>
+      <c r="I18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="1">
+        <v>45565</v>
+      </c>
+      <c r="D19">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19">
+        <v>7</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>282</v>
+      </c>
+      <c r="J19" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="1">
+        <v>45588</v>
+      </c>
+      <c r="E20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20">
+        <v>15</v>
+      </c>
+      <c r="H20" t="s">
+        <v>282</v>
+      </c>
+      <c r="J20" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>290</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="1">
+        <v>45566</v>
+      </c>
+      <c r="D21" t="s">
+        <v>291</v>
+      </c>
+      <c r="E21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21">
+        <v>8</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>282</v>
+      </c>
+      <c r="J21" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="1">
+        <v>45567</v>
+      </c>
+      <c r="D22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22">
+        <v>9</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>282</v>
+      </c>
+      <c r="J22" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="1">
+        <v>45579</v>
+      </c>
+      <c r="D23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>282</v>
+      </c>
+      <c r="J23" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="1">
+        <v>45580</v>
+      </c>
+      <c r="D24">
+        <v>24</v>
+      </c>
+      <c r="E24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24">
+        <v>11</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>282</v>
+      </c>
+      <c r="J24" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="1">
+        <v>45581</v>
+      </c>
+      <c r="D25">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25">
+        <v>12</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>282</v>
+      </c>
+      <c r="J25" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="1">
+        <v>45586</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26">
+        <v>13</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>282</v>
+      </c>
+      <c r="J26" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>292</v>
+      </c>
+      <c r="B27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="1">
+        <v>45587</v>
+      </c>
+      <c r="D27" t="s">
+        <v>291</v>
+      </c>
+      <c r="E27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27">
+        <v>14</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>282</v>
+      </c>
+      <c r="J27" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="1">
+        <v>45588</v>
+      </c>
+      <c r="D28">
+        <v>15</v>
+      </c>
+      <c r="E28" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28">
+        <v>16</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>282</v>
+      </c>
+      <c r="J28" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="1">
+        <v>45594</v>
+      </c>
+      <c r="D29">
+        <v>17</v>
+      </c>
+      <c r="E29" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29">
+        <v>17</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>282</v>
+      </c>
+      <c r="J29" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="1">
+        <v>45595</v>
+      </c>
+      <c r="D30" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30">
+        <v>18</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30" t="s">
+        <v>282</v>
+      </c>
+      <c r="I30" t="s">
+        <v>42</v>
+      </c>
+      <c r="J30" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="1">
+        <v>45600</v>
+      </c>
+      <c r="D31">
+        <v>25</v>
+      </c>
+      <c r="E31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31">
+        <v>19</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>282</v>
+      </c>
+      <c r="J31" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>325</v>
+      </c>
+      <c r="B32" t="s">
+        <v>326</v>
+      </c>
+      <c r="C32" s="1">
+        <v>45601</v>
+      </c>
+      <c r="D32">
+        <v>25</v>
+      </c>
+      <c r="E32" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32">
+        <v>20</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32" t="s">
+        <v>282</v>
+      </c>
+      <c r="J32" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="1">
+        <v>45602</v>
+      </c>
+      <c r="D33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33">
+        <v>21</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>282</v>
+      </c>
+      <c r="J33" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="1">
+        <v>45975</v>
+      </c>
+      <c r="D34">
+        <v>15</v>
+      </c>
+      <c r="E34" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+      <c r="H34" t="s">
+        <v>282</v>
+      </c>
+      <c r="I34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="1">
+        <v>45620</v>
+      </c>
+      <c r="D35" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35">
+        <v>24</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>282</v>
+      </c>
+      <c r="I35" t="s">
+        <v>42</v>
+      </c>
+      <c r="J35" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="1">
+        <v>45615</v>
+      </c>
+      <c r="D36" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36">
+        <v>22</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>282</v>
+      </c>
+      <c r="I36" t="s">
+        <v>42</v>
+      </c>
+      <c r="J36" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="1">
+        <v>45616</v>
+      </c>
+      <c r="D37" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37">
+        <v>23</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>282</v>
+      </c>
+      <c r="J37" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="1">
+        <v>45621</v>
+      </c>
+      <c r="D38" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" t="s">
+        <v>45</v>
+      </c>
+      <c r="F38">
+        <v>25</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
+        <v>282</v>
+      </c>
+      <c r="J38" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="1">
+        <v>45622</v>
+      </c>
+      <c r="D39" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39">
+        <v>26</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39" t="s">
+        <v>282</v>
+      </c>
+      <c r="I39" t="s">
+        <v>99</v>
+      </c>
+      <c r="J39" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>293</v>
+      </c>
+      <c r="B40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" s="1">
+        <v>45592</v>
+      </c>
+      <c r="D40" t="s">
+        <v>291</v>
+      </c>
+      <c r="E40" t="s">
+        <v>298</v>
+      </c>
+      <c r="F40">
+        <v>38</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>282</v>
+      </c>
+      <c r="I40" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>294</v>
+      </c>
+      <c r="B41" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" s="1">
+        <v>45623</v>
+      </c>
+      <c r="D41" t="s">
+        <v>295</v>
+      </c>
+      <c r="E41" t="s">
+        <v>298</v>
+      </c>
+      <c r="F41">
+        <v>27</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
+      <c r="H41" t="s">
+        <v>282</v>
+      </c>
+      <c r="J41" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="1">
+        <v>45635</v>
+      </c>
+      <c r="D42">
+        <v>24</v>
+      </c>
+      <c r="E42" t="s">
+        <v>45</v>
+      </c>
+      <c r="F42">
+        <v>28</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
+        <v>282</v>
+      </c>
+      <c r="J42" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>105</v>
+      </c>
+      <c r="B43" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" s="1">
+        <v>45636</v>
+      </c>
+      <c r="D43">
+        <v>7</v>
+      </c>
+      <c r="E43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F43">
+        <v>29</v>
+      </c>
+      <c r="G43">
+        <v>3</v>
+      </c>
+      <c r="H43" t="s">
+        <v>282</v>
+      </c>
+      <c r="J43" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" s="1">
+        <v>45637</v>
+      </c>
+      <c r="D44">
+        <v>25</v>
+      </c>
+      <c r="E44" t="s">
+        <v>45</v>
+      </c>
+      <c r="F44">
+        <v>30</v>
+      </c>
+      <c r="H44" t="s">
+        <v>282</v>
+      </c>
+      <c r="J44" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>109</v>
+      </c>
+      <c r="B45" t="s">
+        <v>110</v>
+      </c>
+      <c r="C45" s="1">
+        <v>45642</v>
+      </c>
+      <c r="D45" t="s">
+        <v>111</v>
+      </c>
+      <c r="E45" t="s">
+        <v>45</v>
+      </c>
+      <c r="F45">
+        <v>31</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45" t="s">
+        <v>282</v>
+      </c>
+      <c r="J45" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46" t="s">
+        <v>113</v>
+      </c>
+      <c r="C46" s="1">
+        <v>45643</v>
+      </c>
+      <c r="D46">
+        <v>14</v>
+      </c>
+      <c r="E46" t="s">
+        <v>298</v>
+      </c>
+      <c r="F46">
+        <v>32</v>
+      </c>
+      <c r="H46" t="s">
+        <v>282</v>
+      </c>
+      <c r="J46" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>114</v>
+      </c>
+      <c r="B47" t="s">
+        <v>115</v>
+      </c>
+      <c r="C47" s="1">
+        <v>45644</v>
+      </c>
+      <c r="D47">
+        <v>15</v>
+      </c>
+      <c r="E47" t="s">
+        <v>34</v>
+      </c>
+      <c r="F47">
+        <v>33</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47" t="s">
+        <v>282</v>
+      </c>
+      <c r="J47" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>116</v>
+      </c>
+      <c r="B48" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" s="1">
+        <v>45649</v>
+      </c>
+      <c r="D48">
+        <v>8</v>
+      </c>
+      <c r="E48" t="s">
+        <v>298</v>
+      </c>
+      <c r="F48">
+        <v>34</v>
+      </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
+      <c r="H48" t="s">
+        <v>282</v>
+      </c>
+      <c r="J48" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>118</v>
+      </c>
+      <c r="B49" t="s">
+        <v>119</v>
+      </c>
+      <c r="C49" s="1">
+        <v>45650</v>
+      </c>
+      <c r="D49" t="s">
+        <v>120</v>
+      </c>
+      <c r="E49" t="s">
+        <v>45</v>
+      </c>
+      <c r="F49">
+        <v>35</v>
+      </c>
+      <c r="H49" t="s">
+        <v>282</v>
+      </c>
+      <c r="J49" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C50" s="1">
+        <v>45651</v>
+      </c>
+      <c r="D50" t="s">
+        <v>123</v>
+      </c>
+      <c r="E50" t="s">
+        <v>45</v>
+      </c>
+      <c r="F50">
+        <v>36</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="H50" t="s">
+        <v>282</v>
+      </c>
+      <c r="J50" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>124</v>
+      </c>
+      <c r="B51" t="s">
+        <v>125</v>
+      </c>
+      <c r="C51" s="1">
+        <v>45663</v>
+      </c>
+      <c r="D51">
+        <v>13</v>
+      </c>
+      <c r="E51" t="s">
+        <v>34</v>
+      </c>
+      <c r="F51">
+        <v>37</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>296</v>
+      </c>
+      <c r="B52" t="s">
+        <v>126</v>
+      </c>
+      <c r="C52" s="1">
+        <v>45664</v>
+      </c>
+      <c r="D52" t="s">
+        <v>291</v>
+      </c>
+      <c r="E52" t="s">
+        <v>34</v>
+      </c>
+      <c r="F52">
+        <v>38</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52" t="s">
+        <v>282</v>
+      </c>
+      <c r="I52" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>127</v>
+      </c>
+      <c r="B53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C53" s="1">
+        <v>45665</v>
+      </c>
+      <c r="D53">
+        <v>17</v>
+      </c>
+      <c r="E53" t="s">
+        <v>45</v>
+      </c>
+      <c r="F53">
+        <v>39</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>129</v>
+      </c>
+      <c r="B54" t="s">
+        <v>130</v>
+      </c>
+      <c r="C54" s="1">
+        <v>45671</v>
+      </c>
+      <c r="D54" t="s">
+        <v>77</v>
+      </c>
+      <c r="E54" t="s">
+        <v>34</v>
+      </c>
+      <c r="F54">
+        <v>40</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54" t="s">
+        <v>282</v>
+      </c>
+      <c r="I54" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>131</v>
+      </c>
+      <c r="B55" t="s">
+        <v>132</v>
+      </c>
+      <c r="C55" s="1">
+        <v>45672</v>
+      </c>
+      <c r="D55">
+        <v>24</v>
+      </c>
+      <c r="E55" t="s">
+        <v>45</v>
+      </c>
+      <c r="F55">
+        <v>41</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>133</v>
+      </c>
+      <c r="B56" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" s="1">
+        <v>45677</v>
+      </c>
+      <c r="D56" t="s">
+        <v>135</v>
+      </c>
+      <c r="E56" t="s">
+        <v>45</v>
+      </c>
+      <c r="F56">
+        <v>42</v>
+      </c>
+      <c r="G56">
+        <v>3</v>
+      </c>
+      <c r="H56" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>136</v>
+      </c>
+      <c r="B57" t="s">
+        <v>137</v>
+      </c>
+      <c r="C57" s="1">
+        <v>45678</v>
+      </c>
+      <c r="D57">
+        <v>25</v>
+      </c>
+      <c r="E57" t="s">
+        <v>45</v>
+      </c>
+      <c r="F57">
+        <v>43</v>
+      </c>
+      <c r="H57" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>138</v>
+      </c>
+      <c r="B58" t="s">
+        <v>139</v>
+      </c>
+      <c r="C58" s="1">
+        <v>45679</v>
+      </c>
+      <c r="D58" t="s">
+        <v>37</v>
+      </c>
+      <c r="E58" t="s">
+        <v>34</v>
+      </c>
+      <c r="F58">
+        <v>44</v>
+      </c>
+      <c r="H58" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>140</v>
+      </c>
+      <c r="B59" t="s">
+        <v>141</v>
+      </c>
+      <c r="C59" s="1">
+        <v>45684</v>
+      </c>
+      <c r="D59">
+        <v>12</v>
+      </c>
+      <c r="E59" t="s">
+        <v>34</v>
+      </c>
+      <c r="F59">
+        <v>45</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>142</v>
+      </c>
+      <c r="B60" t="s">
+        <v>143</v>
+      </c>
+      <c r="C60" s="1">
+        <v>45691</v>
+      </c>
+      <c r="D60">
+        <v>9</v>
+      </c>
+      <c r="E60" t="s">
+        <v>45</v>
+      </c>
+      <c r="F60">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>282</v>
+      </c>
+      <c r="I60" t="s">
+        <v>144</v>
+      </c>
+      <c r="J60" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>145</v>
+      </c>
+      <c r="B61" t="s">
+        <v>146</v>
+      </c>
+      <c r="C61" s="1">
+        <v>45692</v>
+      </c>
+      <c r="D61">
+        <v>24</v>
+      </c>
+      <c r="E61" t="s">
+        <v>45</v>
+      </c>
+      <c r="F61">
+        <v>47</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61" t="s">
+        <v>282</v>
+      </c>
+      <c r="J61" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62" t="s">
+        <v>147</v>
+      </c>
+      <c r="C62" s="1">
+        <v>45693</v>
+      </c>
+      <c r="D62">
+        <v>15</v>
+      </c>
+      <c r="E62" t="s">
+        <v>34</v>
+      </c>
+      <c r="F62">
+        <v>48</v>
+      </c>
+      <c r="H62" t="s">
+        <v>282</v>
+      </c>
+      <c r="J62" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>148</v>
+      </c>
+      <c r="B63" t="s">
+        <v>149</v>
+      </c>
+      <c r="C63" s="1">
+        <v>45698</v>
+      </c>
+      <c r="D63">
+        <v>8</v>
+      </c>
+      <c r="E63" t="s">
+        <v>34</v>
+      </c>
+      <c r="F63">
+        <v>49</v>
+      </c>
+      <c r="H63" t="s">
+        <v>282</v>
+      </c>
+      <c r="J63" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>150</v>
+      </c>
+      <c r="B64" t="s">
+        <v>151</v>
+      </c>
+      <c r="C64" s="1">
+        <v>45699</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" t="s">
+        <v>45</v>
+      </c>
+      <c r="F64">
+        <v>50</v>
+      </c>
+      <c r="H64" t="s">
+        <v>282</v>
+      </c>
+      <c r="J64" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>297</v>
+      </c>
+      <c r="B65" t="s">
+        <v>152</v>
+      </c>
+      <c r="C65" s="1">
+        <v>45700</v>
+      </c>
+      <c r="D65" t="s">
+        <v>291</v>
+      </c>
+      <c r="E65" t="s">
+        <v>298</v>
+      </c>
+      <c r="F65">
+        <v>51</v>
+      </c>
+      <c r="H65" t="s">
+        <v>282</v>
+      </c>
+      <c r="J65" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>153</v>
+      </c>
+      <c r="B66" t="s">
+        <v>154</v>
+      </c>
+      <c r="C66" s="1">
+        <v>45705</v>
+      </c>
+      <c r="D66" t="s">
+        <v>87</v>
+      </c>
+      <c r="E66" t="s">
+        <v>34</v>
+      </c>
+      <c r="F66">
+        <v>52</v>
+      </c>
+      <c r="H66" t="s">
+        <v>282</v>
+      </c>
+      <c r="I66" t="s">
+        <v>42</v>
+      </c>
+      <c r="J66" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>155</v>
+      </c>
+      <c r="B67" t="s">
+        <v>156</v>
+      </c>
+      <c r="C67" s="1">
+        <v>45706</v>
+      </c>
+      <c r="D67">
+        <v>9</v>
+      </c>
+      <c r="E67" t="s">
+        <v>45</v>
+      </c>
+      <c r="F67">
+        <v>53</v>
+      </c>
+      <c r="H67" t="s">
+        <v>282</v>
+      </c>
+      <c r="I67" t="s">
+        <v>144</v>
+      </c>
+      <c r="J67" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>157</v>
+      </c>
+      <c r="B68" t="s">
+        <v>158</v>
+      </c>
+      <c r="C68" s="1">
+        <v>45707</v>
+      </c>
+      <c r="D68">
+        <v>13</v>
+      </c>
+      <c r="E68" t="s">
+        <v>45</v>
+      </c>
+      <c r="F68">
+        <v>54</v>
+      </c>
+      <c r="H68" t="s">
+        <v>282</v>
+      </c>
+      <c r="I68" t="s">
+        <v>99</v>
+      </c>
+      <c r="J68" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>159</v>
+      </c>
+      <c r="B69" t="s">
+        <v>160</v>
+      </c>
+      <c r="C69" s="1">
+        <v>45712</v>
+      </c>
+      <c r="D69" t="s">
+        <v>161</v>
+      </c>
+      <c r="E69" t="s">
+        <v>34</v>
+      </c>
+      <c r="F69">
+        <v>55</v>
+      </c>
+      <c r="H69" t="s">
+        <v>282</v>
+      </c>
+      <c r="J69" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>162</v>
+      </c>
+      <c r="B70" t="s">
+        <v>163</v>
+      </c>
+      <c r="C70" s="1">
+        <v>45720</v>
+      </c>
+      <c r="D70">
+        <v>7</v>
+      </c>
+      <c r="E70" t="s">
+        <v>34</v>
+      </c>
+      <c r="F70">
+        <v>56</v>
+      </c>
+      <c r="H70" t="s">
+        <v>282</v>
+      </c>
+      <c r="J70" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>164</v>
+      </c>
+      <c r="B71" t="s">
+        <v>165</v>
+      </c>
+      <c r="C71" s="1">
+        <v>45721</v>
+      </c>
+      <c r="D71" t="s">
+        <v>77</v>
+      </c>
+      <c r="E71" t="s">
+        <v>34</v>
+      </c>
+      <c r="F71">
+        <v>57</v>
+      </c>
+      <c r="H71" t="s">
+        <v>282</v>
+      </c>
+      <c r="I71" t="s">
+        <v>42</v>
+      </c>
+      <c r="J71" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>166</v>
+      </c>
+      <c r="B72" t="s">
+        <v>167</v>
+      </c>
+      <c r="C72" s="1">
+        <v>45726</v>
+      </c>
+      <c r="D72">
+        <v>15</v>
+      </c>
+      <c r="E72" t="s">
+        <v>34</v>
+      </c>
+      <c r="F72">
+        <v>58</v>
+      </c>
+      <c r="G72">
+        <v>3</v>
+      </c>
+      <c r="H72" t="s">
+        <v>282</v>
+      </c>
+      <c r="J72" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>168</v>
+      </c>
+      <c r="B73" t="s">
+        <v>169</v>
+      </c>
+      <c r="C73" s="1">
+        <v>45727</v>
+      </c>
+      <c r="D73" t="s">
+        <v>170</v>
+      </c>
+      <c r="E73" t="s">
+        <v>45</v>
+      </c>
+      <c r="F73">
+        <v>59</v>
+      </c>
+      <c r="H73" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>171</v>
+      </c>
+      <c r="B74" t="s">
+        <v>172</v>
+      </c>
+      <c r="C74" s="1">
+        <v>45736</v>
+      </c>
+      <c r="D74">
+        <v>24</v>
+      </c>
+      <c r="E74" t="s">
+        <v>45</v>
+      </c>
+      <c r="F74">
+        <v>63</v>
+      </c>
+      <c r="H74" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>173</v>
+      </c>
+      <c r="B75" t="s">
+        <v>174</v>
+      </c>
+      <c r="C75" s="1">
+        <v>45733</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" t="s">
+        <v>45</v>
+      </c>
+      <c r="F75">
+        <v>60</v>
+      </c>
+      <c r="H75" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>175</v>
+      </c>
+      <c r="B76" t="s">
+        <v>176</v>
+      </c>
+      <c r="C76" s="1">
+        <v>45734</v>
+      </c>
+      <c r="D76" t="s">
+        <v>177</v>
+      </c>
+      <c r="E76" t="s">
+        <v>298</v>
+      </c>
+      <c r="F76">
+        <v>61</v>
+      </c>
+      <c r="H76" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>178</v>
+      </c>
+      <c r="B77" t="s">
+        <v>179</v>
+      </c>
+      <c r="C77" s="1">
+        <v>45735</v>
+      </c>
+      <c r="D77" t="s">
+        <v>180</v>
+      </c>
+      <c r="E77" t="s">
+        <v>45</v>
+      </c>
+      <c r="F77">
+        <v>62</v>
+      </c>
+      <c r="H77" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>181</v>
+      </c>
+      <c r="B78" t="s">
+        <v>182</v>
+      </c>
+      <c r="C78" s="1">
+        <v>45740</v>
+      </c>
+      <c r="D78" t="s">
+        <v>183</v>
+      </c>
+      <c r="E78" t="s">
+        <v>45</v>
+      </c>
+      <c r="F78">
+        <v>64</v>
+      </c>
+      <c r="H78" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>184</v>
+      </c>
+      <c r="B79" t="s">
+        <v>185</v>
+      </c>
+      <c r="C79" s="1">
+        <v>45741</v>
+      </c>
+      <c r="D79" t="s">
+        <v>186</v>
+      </c>
+      <c r="E79" t="s">
+        <v>34</v>
+      </c>
+      <c r="F79">
+        <v>65</v>
+      </c>
+      <c r="H79" t="s">
+        <v>282</v>
+      </c>
+      <c r="I79" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>187</v>
+      </c>
+      <c r="B80" t="s">
+        <v>188</v>
+      </c>
+      <c r="C80" s="1">
+        <v>45742</v>
+      </c>
+      <c r="D80">
+        <v>24</v>
+      </c>
+      <c r="E80" t="s">
+        <v>45</v>
+      </c>
+      <c r="F80">
+        <v>66</v>
+      </c>
+      <c r="H80" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>189</v>
+      </c>
+      <c r="B81" t="s">
+        <v>190</v>
+      </c>
+      <c r="C81" s="1">
+        <v>45589</v>
+      </c>
+      <c r="D81">
+        <v>26</v>
+      </c>
+      <c r="E81" t="s">
+        <v>45</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="H81" t="s">
+        <v>281</v>
+      </c>
+      <c r="I81" t="s">
+        <v>42</v>
+      </c>
+      <c r="J81" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>191</v>
+      </c>
+      <c r="B82" t="s">
+        <v>192</v>
+      </c>
+      <c r="C82" s="1">
+        <v>45590</v>
+      </c>
+      <c r="D82">
+        <v>26</v>
+      </c>
+      <c r="E82" t="s">
+        <v>45</v>
+      </c>
+      <c r="F82">
+        <v>2</v>
+      </c>
+      <c r="H82" t="s">
+        <v>281</v>
+      </c>
+      <c r="J82" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>193</v>
+      </c>
+      <c r="B83" t="s">
+        <v>194</v>
+      </c>
+      <c r="C83" s="1">
+        <v>45597</v>
+      </c>
+      <c r="D83">
+        <v>26</v>
+      </c>
+      <c r="E83" t="s">
+        <v>45</v>
+      </c>
+      <c r="F83">
+        <v>3</v>
+      </c>
+      <c r="H83" t="s">
+        <v>281</v>
+      </c>
+      <c r="J83" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>193</v>
+      </c>
+      <c r="B84" t="s">
+        <v>195</v>
+      </c>
+      <c r="C84" s="1">
+        <v>45604</v>
+      </c>
+      <c r="D84">
+        <v>26</v>
+      </c>
+      <c r="E84" t="s">
+        <v>45</v>
+      </c>
+      <c r="F84">
+        <v>4</v>
+      </c>
+      <c r="H84" t="s">
+        <v>281</v>
+      </c>
+      <c r="J84" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>193</v>
+      </c>
+      <c r="B85" t="s">
+        <v>196</v>
+      </c>
+      <c r="C85" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D85">
+        <v>26</v>
+      </c>
+      <c r="E85" t="s">
+        <v>45</v>
+      </c>
+      <c r="F85">
+        <v>5</v>
+      </c>
+      <c r="H85" t="s">
+        <v>281</v>
+      </c>
+      <c r="J85" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>193</v>
+      </c>
+      <c r="B86" t="s">
+        <v>197</v>
+      </c>
+      <c r="C86" s="1">
+        <v>45618</v>
+      </c>
+      <c r="D86">
+        <v>26</v>
+      </c>
+      <c r="E86" t="s">
+        <v>45</v>
+      </c>
+      <c r="F86">
+        <v>6</v>
+      </c>
+      <c r="H86" t="s">
+        <v>281</v>
+      </c>
+      <c r="J86" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>193</v>
+      </c>
+      <c r="B87" t="s">
+        <v>198</v>
+      </c>
+      <c r="C87" s="1">
+        <v>45632</v>
+      </c>
+      <c r="D87">
+        <v>26</v>
+      </c>
+      <c r="E87" t="s">
+        <v>45</v>
+      </c>
+      <c r="F87">
+        <v>8</v>
+      </c>
+      <c r="H87" t="s">
+        <v>281</v>
+      </c>
+      <c r="J87" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>193</v>
+      </c>
+      <c r="B88" t="s">
+        <v>199</v>
+      </c>
+      <c r="C88" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D88">
+        <v>26</v>
+      </c>
+      <c r="E88" t="s">
+        <v>45</v>
+      </c>
+      <c r="F88">
+        <v>8</v>
+      </c>
+      <c r="H88" t="s">
+        <v>281</v>
+      </c>
+      <c r="J88" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>200</v>
+      </c>
+      <c r="B89" t="s">
+        <v>201</v>
+      </c>
+      <c r="C89" s="1">
+        <v>45667</v>
+      </c>
+      <c r="D89">
+        <v>26</v>
+      </c>
+      <c r="E89" t="s">
+        <v>45</v>
+      </c>
+      <c r="F89">
+        <v>9</v>
+      </c>
+      <c r="H89" t="s">
+        <v>281</v>
+      </c>
+      <c r="J89" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>200</v>
+      </c>
+      <c r="B90" t="s">
+        <v>202</v>
+      </c>
+      <c r="C90" s="1">
+        <v>45681</v>
+      </c>
+      <c r="D90">
+        <v>26</v>
+      </c>
+      <c r="E90" t="s">
+        <v>45</v>
+      </c>
+      <c r="F90">
+        <v>10</v>
+      </c>
+      <c r="H90" t="s">
+        <v>281</v>
+      </c>
+      <c r="J90" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>200</v>
+      </c>
+      <c r="B91" t="s">
+        <v>203</v>
+      </c>
+      <c r="C91" s="1">
+        <v>45702</v>
+      </c>
+      <c r="D91">
+        <v>26</v>
+      </c>
+      <c r="E91" t="s">
+        <v>45</v>
+      </c>
+      <c r="F91">
+        <v>13</v>
+      </c>
+      <c r="H91" t="s">
+        <v>281</v>
+      </c>
+      <c r="J91" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>200</v>
+      </c>
+      <c r="B92" t="s">
+        <v>204</v>
+      </c>
+      <c r="C92" s="1">
+        <v>45709</v>
+      </c>
+      <c r="D92">
+        <v>26</v>
+      </c>
+      <c r="E92" t="s">
+        <v>45</v>
+      </c>
+      <c r="F92">
+        <v>14</v>
+      </c>
+      <c r="H92" t="s">
+        <v>281</v>
+      </c>
+      <c r="J92" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>200</v>
+      </c>
+      <c r="B93" t="s">
+        <v>205</v>
+      </c>
+      <c r="C93" s="1">
+        <v>45717</v>
+      </c>
+      <c r="D93">
+        <v>26</v>
+      </c>
+      <c r="E93" t="s">
+        <v>45</v>
+      </c>
+      <c r="F93">
+        <v>15</v>
+      </c>
+      <c r="H93" t="s">
+        <v>281</v>
+      </c>
+      <c r="J93" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>200</v>
+      </c>
+      <c r="B94" t="s">
+        <v>206</v>
+      </c>
+      <c r="C94" s="1">
+        <v>45725</v>
+      </c>
+      <c r="D94">
+        <v>26</v>
+      </c>
+      <c r="E94" t="s">
+        <v>45</v>
+      </c>
+      <c r="F94">
+        <v>16</v>
+      </c>
+      <c r="H94" t="s">
+        <v>281</v>
+      </c>
+      <c r="J94" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>200</v>
+      </c>
+      <c r="B95" t="s">
+        <v>207</v>
+      </c>
+      <c r="C95" s="1">
+        <v>45730</v>
+      </c>
+      <c r="D95">
+        <v>26</v>
+      </c>
+      <c r="E95" t="s">
+        <v>45</v>
+      </c>
+      <c r="F95">
+        <v>17</v>
+      </c>
+      <c r="H95" t="s">
+        <v>281</v>
+      </c>
+      <c r="J95" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>200</v>
+      </c>
+      <c r="B96" t="s">
+        <v>208</v>
+      </c>
+      <c r="C96" s="1">
+        <v>45735</v>
+      </c>
+      <c r="D96">
+        <v>26</v>
+      </c>
+      <c r="E96" t="s">
+        <v>45</v>
+      </c>
+      <c r="F96">
+        <v>18</v>
+      </c>
+      <c r="H96" t="s">
+        <v>281</v>
+      </c>
+      <c r="J96" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>200</v>
+      </c>
+      <c r="B97" t="s">
+        <v>209</v>
+      </c>
+      <c r="C97" s="1">
+        <v>45740</v>
+      </c>
+      <c r="D97">
+        <v>26</v>
+      </c>
+      <c r="E97" t="s">
+        <v>45</v>
+      </c>
+      <c r="F97">
+        <v>20</v>
+      </c>
+      <c r="H97" t="s">
+        <v>281</v>
+      </c>
+      <c r="J97" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>210</v>
+      </c>
+      <c r="B98" t="s">
+        <v>211</v>
+      </c>
+      <c r="C98" s="1">
+        <v>45551</v>
+      </c>
+      <c r="D98">
+        <v>27</v>
+      </c>
+      <c r="E98" t="s">
+        <v>45</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>3</v>
+      </c>
+      <c r="H98" t="s">
+        <v>283</v>
+      </c>
+      <c r="J98" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>212</v>
+      </c>
+      <c r="B99" t="s">
+        <v>213</v>
+      </c>
+      <c r="C99" s="1">
+        <v>45553</v>
+      </c>
+      <c r="D99">
+        <v>27</v>
+      </c>
+      <c r="E99" t="s">
+        <v>45</v>
+      </c>
+      <c r="F99">
+        <v>2</v>
+      </c>
+      <c r="G99">
+        <v>3</v>
+      </c>
+      <c r="H99" t="s">
+        <v>283</v>
+      </c>
+      <c r="J99" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>214</v>
+      </c>
+      <c r="B100" t="s">
+        <v>215</v>
+      </c>
+      <c r="C100" s="1">
+        <v>45558</v>
+      </c>
+      <c r="D100">
+        <v>27</v>
+      </c>
+      <c r="E100" t="s">
+        <v>45</v>
+      </c>
+      <c r="F100">
+        <v>3</v>
+      </c>
+      <c r="G100">
+        <v>3</v>
+      </c>
+      <c r="H100" t="s">
+        <v>283</v>
+      </c>
+      <c r="J100" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>216</v>
+      </c>
+      <c r="B101" t="s">
+        <v>217</v>
+      </c>
+      <c r="C101" s="1">
+        <v>45560</v>
+      </c>
+      <c r="D101">
+        <v>27</v>
+      </c>
+      <c r="E101" t="s">
+        <v>45</v>
+      </c>
+      <c r="F101">
+        <v>4</v>
+      </c>
+      <c r="G101">
+        <v>3</v>
+      </c>
+      <c r="H101" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>218</v>
+      </c>
+      <c r="B102" t="s">
+        <v>219</v>
+      </c>
+      <c r="C102" s="1">
+        <v>45565</v>
+      </c>
+      <c r="D102">
+        <v>27</v>
+      </c>
+      <c r="E102" t="s">
+        <v>45</v>
+      </c>
+      <c r="F102">
+        <v>5</v>
+      </c>
+      <c r="G102">
+        <v>3</v>
+      </c>
+      <c r="H102" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>220</v>
+      </c>
+      <c r="B103" t="s">
+        <v>221</v>
+      </c>
+      <c r="C103" s="1">
+        <v>45567</v>
+      </c>
+      <c r="D103">
+        <v>27</v>
+      </c>
+      <c r="E103" t="s">
+        <v>45</v>
+      </c>
+      <c r="F103">
+        <v>6</v>
+      </c>
+      <c r="G103">
+        <v>3</v>
+      </c>
+      <c r="H103" t="s">
+        <v>283</v>
+      </c>
+      <c r="J103" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>222</v>
+      </c>
+      <c r="B104" t="s">
+        <v>223</v>
+      </c>
+      <c r="C104" s="1">
+        <v>45579</v>
+      </c>
+      <c r="D104">
+        <v>27</v>
+      </c>
+      <c r="E104" t="s">
+        <v>45</v>
+      </c>
+      <c r="F104">
+        <v>7</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="H104" t="s">
+        <v>283</v>
+      </c>
+      <c r="I104" t="s">
+        <v>256</v>
+      </c>
+      <c r="J104" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>224</v>
+      </c>
+      <c r="B105" t="s">
+        <v>225</v>
+      </c>
+      <c r="C105" s="1">
+        <v>45581</v>
+      </c>
+      <c r="D105">
+        <v>27</v>
+      </c>
+      <c r="E105" t="s">
+        <v>45</v>
+      </c>
+      <c r="F105">
+        <v>8</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+      <c r="H105" t="s">
+        <v>283</v>
+      </c>
+      <c r="I105" t="s">
+        <v>256</v>
+      </c>
+      <c r="J105" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>226</v>
+      </c>
+      <c r="B106" t="s">
+        <v>227</v>
+      </c>
+      <c r="C106" s="1">
+        <v>45586</v>
+      </c>
+      <c r="D106">
+        <v>27</v>
+      </c>
+      <c r="E106" t="s">
+        <v>45</v>
+      </c>
+      <c r="F106">
+        <v>9</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+      <c r="H106" t="s">
+        <v>283</v>
+      </c>
+      <c r="I106" t="s">
+        <v>256</v>
+      </c>
+      <c r="J106" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>228</v>
+      </c>
+      <c r="B107" t="s">
+        <v>229</v>
+      </c>
+      <c r="C107" s="1">
+        <v>45588</v>
+      </c>
+      <c r="D107">
+        <v>27</v>
+      </c>
+      <c r="E107" t="s">
+        <v>45</v>
+      </c>
+      <c r="F107">
+        <v>10</v>
+      </c>
+      <c r="G107">
+        <v>3</v>
+      </c>
+      <c r="H107" t="s">
+        <v>283</v>
+      </c>
+      <c r="J107" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>230</v>
+      </c>
+      <c r="B108" t="s">
+        <v>231</v>
+      </c>
+      <c r="C108" s="1">
+        <v>45593</v>
+      </c>
+      <c r="D108">
+        <v>27</v>
+      </c>
+      <c r="E108" t="s">
+        <v>45</v>
+      </c>
+      <c r="F108">
+        <v>11</v>
+      </c>
+      <c r="G108">
+        <v>3</v>
+      </c>
+      <c r="H108" t="s">
+        <v>283</v>
+      </c>
+      <c r="J108" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>232</v>
+      </c>
+      <c r="B109" t="s">
+        <v>233</v>
+      </c>
+      <c r="C109" s="1">
+        <v>45595</v>
+      </c>
+      <c r="D109">
+        <v>27</v>
+      </c>
+      <c r="E109" t="s">
+        <v>45</v>
+      </c>
+      <c r="F109">
+        <v>12</v>
+      </c>
+      <c r="G109">
+        <v>3</v>
+      </c>
+      <c r="H109" t="s">
+        <v>283</v>
+      </c>
+      <c r="J109" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>234</v>
+      </c>
+      <c r="B110" t="s">
+        <v>235</v>
+      </c>
+      <c r="C110" s="1">
+        <v>45600</v>
+      </c>
+      <c r="D110">
+        <v>27</v>
+      </c>
+      <c r="E110" t="s">
+        <v>45</v>
+      </c>
+      <c r="F110">
+        <v>13</v>
+      </c>
+      <c r="G110">
+        <v>3</v>
+      </c>
+      <c r="H110" t="s">
+        <v>283</v>
+      </c>
+      <c r="J110" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>236</v>
+      </c>
+      <c r="B111" t="s">
+        <v>237</v>
+      </c>
+      <c r="C111" s="1">
+        <v>45602</v>
+      </c>
+      <c r="D111">
+        <v>27</v>
+      </c>
+      <c r="E111" t="s">
+        <v>45</v>
+      </c>
+      <c r="F111">
+        <v>14</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+      <c r="H111" t="s">
+        <v>283</v>
+      </c>
+      <c r="I111" t="s">
+        <v>256</v>
+      </c>
+      <c r="J111" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>238</v>
+      </c>
+      <c r="B112" t="s">
+        <v>239</v>
+      </c>
+      <c r="C112" s="1">
+        <v>45616</v>
+      </c>
+      <c r="D112">
+        <v>27</v>
+      </c>
+      <c r="E112" t="s">
+        <v>45</v>
+      </c>
+      <c r="F112">
+        <v>15</v>
+      </c>
+      <c r="G112">
+        <v>3</v>
+      </c>
+      <c r="H112" t="s">
+        <v>283</v>
+      </c>
+      <c r="J112" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>240</v>
+      </c>
+      <c r="B113" t="s">
+        <v>241</v>
+      </c>
+      <c r="C113" s="1">
+        <v>45620</v>
+      </c>
+      <c r="D113">
+        <v>27</v>
+      </c>
+      <c r="E113" t="s">
+        <v>45</v>
+      </c>
+      <c r="F113">
+        <v>16</v>
+      </c>
+      <c r="G113">
+        <v>3</v>
+      </c>
+      <c r="H113" t="s">
+        <v>283</v>
+      </c>
+      <c r="J113" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>242</v>
+      </c>
+      <c r="B114" t="s">
+        <v>243</v>
+      </c>
+      <c r="C114" s="1">
+        <v>45621</v>
+      </c>
+      <c r="D114">
+        <v>27</v>
+      </c>
+      <c r="E114" t="s">
+        <v>45</v>
+      </c>
+      <c r="F114">
+        <v>17</v>
+      </c>
+      <c r="G114">
+        <v>3</v>
+      </c>
+      <c r="H114" t="s">
+        <v>283</v>
+      </c>
+      <c r="J114" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>244</v>
+      </c>
+      <c r="B115" t="s">
+        <v>245</v>
+      </c>
+      <c r="C115" s="1">
+        <v>45623</v>
+      </c>
+      <c r="D115">
+        <v>27</v>
+      </c>
+      <c r="E115" t="s">
+        <v>45</v>
+      </c>
+      <c r="F115">
+        <v>18</v>
+      </c>
+      <c r="G115">
+        <v>3</v>
+      </c>
+      <c r="H115" t="s">
+        <v>283</v>
+      </c>
+      <c r="J115" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>236</v>
+      </c>
+      <c r="B116" t="s">
+        <v>246</v>
+      </c>
+      <c r="C116" s="1">
+        <v>45635</v>
+      </c>
+      <c r="D116">
+        <v>27</v>
+      </c>
+      <c r="E116" t="s">
+        <v>45</v>
+      </c>
+      <c r="F116">
+        <v>19</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+      <c r="H116" t="s">
+        <v>283</v>
+      </c>
+      <c r="I116" t="s">
+        <v>256</v>
+      </c>
+      <c r="J116" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>236</v>
+      </c>
+      <c r="B117" t="s">
+        <v>247</v>
+      </c>
+      <c r="C117" s="1">
+        <v>45637</v>
+      </c>
+      <c r="D117">
+        <v>27</v>
+      </c>
+      <c r="E117" t="s">
+        <v>45</v>
+      </c>
+      <c r="F117">
+        <v>20</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
+      </c>
+      <c r="H117" t="s">
+        <v>283</v>
+      </c>
+      <c r="I117" t="s">
+        <v>256</v>
+      </c>
+      <c r="J117" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>248</v>
+      </c>
+      <c r="B118" t="s">
+        <v>249</v>
+      </c>
+      <c r="C118" s="1">
+        <v>45642</v>
+      </c>
+      <c r="D118">
+        <v>27</v>
+      </c>
+      <c r="E118" t="s">
+        <v>45</v>
+      </c>
+      <c r="F118">
+        <v>21</v>
+      </c>
+      <c r="G118">
+        <v>3</v>
+      </c>
+      <c r="H118" t="s">
+        <v>283</v>
+      </c>
+      <c r="J118" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>250</v>
+      </c>
+      <c r="B119" t="s">
+        <v>251</v>
+      </c>
+      <c r="C119" s="1">
+        <v>45644</v>
+      </c>
+      <c r="D119">
+        <v>27</v>
+      </c>
+      <c r="E119" t="s">
+        <v>45</v>
+      </c>
+      <c r="F119">
+        <v>22</v>
+      </c>
+      <c r="G119">
+        <v>3</v>
+      </c>
+      <c r="H119" t="s">
+        <v>283</v>
+      </c>
+      <c r="J119" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>252</v>
+      </c>
+      <c r="B120" t="s">
+        <v>253</v>
+      </c>
+      <c r="C120" s="1">
+        <v>45649</v>
+      </c>
+      <c r="D120">
+        <v>27</v>
+      </c>
+      <c r="E120" t="s">
+        <v>45</v>
+      </c>
+      <c r="F120">
+        <v>23</v>
+      </c>
+      <c r="G120">
+        <v>3</v>
+      </c>
+      <c r="H120" t="s">
+        <v>283</v>
+      </c>
+      <c r="J120" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>254</v>
+      </c>
+      <c r="B121" t="s">
+        <v>255</v>
+      </c>
+      <c r="C121" s="1">
+        <v>45663</v>
+      </c>
+      <c r="D121">
+        <v>27</v>
+      </c>
+      <c r="E121" t="s">
+        <v>45</v>
+      </c>
+      <c r="F121">
+        <v>24</v>
+      </c>
+      <c r="G121">
+        <v>2</v>
+      </c>
+      <c r="H121" t="s">
+        <v>283</v>
+      </c>
+      <c r="I121" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>257</v>
+      </c>
+      <c r="B122" t="s">
+        <v>258</v>
+      </c>
+      <c r="C122" s="1">
+        <v>45665</v>
+      </c>
+      <c r="D122">
+        <v>27</v>
+      </c>
+      <c r="E122" t="s">
+        <v>45</v>
+      </c>
+      <c r="F122">
+        <v>25</v>
+      </c>
+      <c r="G122">
+        <v>1</v>
+      </c>
+      <c r="H122" t="s">
+        <v>283</v>
+      </c>
+      <c r="I122" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>259</v>
+      </c>
+      <c r="B123" t="s">
+        <v>260</v>
+      </c>
+      <c r="C123" s="1">
+        <v>45672</v>
+      </c>
+      <c r="D123">
+        <v>27</v>
+      </c>
+      <c r="E123" t="s">
+        <v>45</v>
+      </c>
+      <c r="F123">
+        <v>26</v>
+      </c>
+      <c r="G123">
+        <v>1</v>
+      </c>
+      <c r="H123" t="s">
+        <v>283</v>
+      </c>
+      <c r="I123" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>261</v>
+      </c>
+      <c r="B124" t="s">
+        <v>262</v>
+      </c>
+      <c r="C124" s="1">
+        <v>45677</v>
+      </c>
+      <c r="D124">
+        <v>27</v>
+      </c>
+      <c r="E124" t="s">
+        <v>45</v>
+      </c>
+      <c r="F124">
+        <v>27</v>
+      </c>
+      <c r="G124">
+        <v>3</v>
+      </c>
+      <c r="H124" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>263</v>
+      </c>
+      <c r="B125" t="s">
+        <v>264</v>
+      </c>
+      <c r="C125" s="1">
+        <v>45679</v>
+      </c>
+      <c r="D125">
+        <v>27</v>
+      </c>
+      <c r="E125" t="s">
+        <v>45</v>
+      </c>
+      <c r="F125">
+        <v>28</v>
+      </c>
+      <c r="G125">
+        <v>3</v>
+      </c>
+      <c r="H125" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>265</v>
+      </c>
+      <c r="B126" t="s">
+        <v>266</v>
+      </c>
+      <c r="C126" s="1">
+        <v>45690</v>
+      </c>
+      <c r="D126">
+        <v>27</v>
+      </c>
+      <c r="E126" t="s">
+        <v>45</v>
+      </c>
+      <c r="F126">
+        <v>29</v>
+      </c>
+      <c r="G126">
+        <v>1</v>
+      </c>
+      <c r="H126" t="s">
+        <v>283</v>
+      </c>
+      <c r="I126" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>254</v>
+      </c>
+      <c r="B127" t="s">
+        <v>267</v>
+      </c>
+      <c r="C127" s="1">
+        <v>45691</v>
+      </c>
+      <c r="D127">
+        <v>27</v>
+      </c>
+      <c r="E127" t="s">
+        <v>45</v>
+      </c>
+      <c r="F127">
+        <v>30</v>
+      </c>
+      <c r="G127">
+        <v>2</v>
+      </c>
+      <c r="H127" t="s">
+        <v>283</v>
+      </c>
+      <c r="I127" t="s">
+        <v>256</v>
+      </c>
+      <c r="J127" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>254</v>
+      </c>
+      <c r="B128" t="s">
+        <v>268</v>
+      </c>
+      <c r="C128" s="1">
+        <v>45693</v>
+      </c>
+      <c r="D128">
+        <v>27</v>
+      </c>
+      <c r="E128" t="s">
+        <v>45</v>
+      </c>
+      <c r="F128">
+        <v>31</v>
+      </c>
+      <c r="G128">
+        <v>2</v>
+      </c>
+      <c r="H128" t="s">
+        <v>283</v>
+      </c>
+      <c r="I128" t="s">
+        <v>256</v>
+      </c>
+      <c r="J128" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>254</v>
+      </c>
+      <c r="B129" t="s">
+        <v>269</v>
+      </c>
+      <c r="C129" s="1">
+        <v>45698</v>
+      </c>
+      <c r="D129">
+        <v>27</v>
+      </c>
+      <c r="E129" t="s">
+        <v>45</v>
+      </c>
+      <c r="F129">
+        <v>32</v>
+      </c>
+      <c r="G129">
+        <v>2</v>
+      </c>
+      <c r="H129" t="s">
+        <v>283</v>
+      </c>
+      <c r="I129" t="s">
+        <v>256</v>
+      </c>
+      <c r="J129" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>254</v>
+      </c>
+      <c r="B130" t="s">
+        <v>270</v>
+      </c>
+      <c r="C130" s="1">
+        <v>45700</v>
+      </c>
+      <c r="D130">
+        <v>27</v>
+      </c>
+      <c r="E130" t="s">
+        <v>45</v>
+      </c>
+      <c r="F130">
+        <v>33</v>
+      </c>
+      <c r="G130">
+        <v>2</v>
+      </c>
+      <c r="H130" t="s">
+        <v>283</v>
+      </c>
+      <c r="I130" t="s">
+        <v>256</v>
+      </c>
+      <c r="J130" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>254</v>
+      </c>
+      <c r="B131" t="s">
+        <v>390</v>
+      </c>
+      <c r="C131" s="1">
+        <v>45705</v>
+      </c>
+      <c r="D131">
+        <v>27</v>
+      </c>
+      <c r="E131" t="s">
+        <v>45</v>
+      </c>
+      <c r="F131">
+        <v>34</v>
+      </c>
+      <c r="G131">
+        <v>2</v>
+      </c>
+      <c r="H131" t="s">
+        <v>283</v>
+      </c>
+      <c r="I131" t="s">
+        <v>256</v>
+      </c>
+      <c r="J131" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>254</v>
+      </c>
+      <c r="B132" t="s">
+        <v>271</v>
+      </c>
+      <c r="C132" s="1">
+        <v>45707</v>
+      </c>
+      <c r="D132">
+        <v>27</v>
+      </c>
+      <c r="E132" t="s">
+        <v>45</v>
+      </c>
+      <c r="F132">
+        <v>35</v>
+      </c>
+      <c r="G132">
+        <v>2</v>
+      </c>
+      <c r="H132" t="s">
+        <v>283</v>
+      </c>
+      <c r="I132" t="s">
+        <v>256</v>
+      </c>
+      <c r="J132" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>254</v>
+      </c>
+      <c r="B133" t="s">
+        <v>272</v>
+      </c>
+      <c r="C133" s="1">
+        <v>45712</v>
+      </c>
+      <c r="D133">
+        <v>27</v>
+      </c>
+      <c r="E133" t="s">
+        <v>45</v>
+      </c>
+      <c r="F133">
+        <v>36</v>
+      </c>
+      <c r="G133">
+        <v>2</v>
+      </c>
+      <c r="H133" t="s">
+        <v>283</v>
+      </c>
+      <c r="I133" t="s">
+        <v>256</v>
+      </c>
+      <c r="J133" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>254</v>
+      </c>
+      <c r="B134" t="s">
+        <v>273</v>
+      </c>
+      <c r="C134" s="1">
+        <v>45721</v>
+      </c>
+      <c r="D134">
+        <v>27</v>
+      </c>
+      <c r="E134" t="s">
+        <v>45</v>
+      </c>
+      <c r="F134">
+        <v>37</v>
+      </c>
+      <c r="G134">
+        <v>2</v>
+      </c>
+      <c r="H134" t="s">
+        <v>283</v>
+      </c>
+      <c r="I134" t="s">
+        <v>256</v>
+      </c>
+      <c r="J134" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>254</v>
+      </c>
+      <c r="B135" t="s">
+        <v>274</v>
+      </c>
+      <c r="C135" s="1">
+        <v>45726</v>
+      </c>
+      <c r="D135">
+        <v>27</v>
+      </c>
+      <c r="E135" t="s">
+        <v>45</v>
+      </c>
+      <c r="F135">
+        <v>38</v>
+      </c>
+      <c r="G135">
+        <v>2</v>
+      </c>
+      <c r="H135" t="s">
+        <v>283</v>
+      </c>
+      <c r="I135" t="s">
+        <v>256</v>
+      </c>
+      <c r="J135" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>254</v>
+      </c>
+      <c r="B136" t="s">
+        <v>275</v>
+      </c>
+      <c r="C136" s="1">
+        <v>45736</v>
+      </c>
+      <c r="D136">
+        <v>27</v>
+      </c>
+      <c r="E136" t="s">
+        <v>45</v>
+      </c>
+      <c r="F136">
+        <v>40</v>
+      </c>
+      <c r="G136">
+        <v>2</v>
+      </c>
+      <c r="H136" t="s">
+        <v>283</v>
+      </c>
+      <c r="I136" t="s">
+        <v>256</v>
+      </c>
+      <c r="J136" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>276</v>
+      </c>
+      <c r="B137" t="s">
+        <v>277</v>
+      </c>
+      <c r="C137" s="1">
+        <v>45733</v>
+      </c>
+      <c r="D137">
+        <v>27</v>
+      </c>
+      <c r="E137" t="s">
+        <v>45</v>
+      </c>
+      <c r="F137">
+        <v>39</v>
+      </c>
+      <c r="G137">
+        <v>2</v>
+      </c>
+      <c r="H137" t="s">
+        <v>283</v>
+      </c>
+      <c r="I137" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>276</v>
+      </c>
+      <c r="B138" t="s">
+        <v>278</v>
+      </c>
+      <c r="D138">
+        <v>27</v>
+      </c>
+      <c r="E138" t="s">
+        <v>45</v>
+      </c>
+      <c r="G138">
+        <v>2</v>
+      </c>
+      <c r="H138" t="s">
+        <v>283</v>
+      </c>
+      <c r="I138" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>279</v>
+      </c>
+      <c r="B139" t="s">
+        <v>280</v>
+      </c>
+      <c r="D139">
+        <v>27</v>
+      </c>
+      <c r="E139" t="s">
+        <v>45</v>
+      </c>
+      <c r="G139">
+        <v>2</v>
+      </c>
+      <c r="H139" t="s">
+        <v>283</v>
+      </c>
+      <c r="I139" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>391</v>
+      </c>
+      <c r="B140" t="s">
+        <v>403</v>
+      </c>
+      <c r="C140" s="1">
+        <v>45563</v>
+      </c>
+      <c r="H140" t="s">
+        <v>417</v>
+      </c>
+      <c r="J140" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>392</v>
+      </c>
+      <c r="B141" t="s">
+        <v>404</v>
+      </c>
+      <c r="C141" s="1">
+        <v>45577</v>
+      </c>
+      <c r="H141" t="s">
+        <v>417</v>
+      </c>
+      <c r="J141" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>393</v>
+      </c>
+      <c r="B142" t="s">
+        <v>405</v>
+      </c>
+      <c r="C142" s="1">
+        <v>45591</v>
+      </c>
+      <c r="H142" t="s">
+        <v>417</v>
+      </c>
+      <c r="J142" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>394</v>
+      </c>
+      <c r="B143" t="s">
+        <v>406</v>
+      </c>
+      <c r="C143" s="1">
+        <v>45605</v>
+      </c>
+      <c r="H143" t="s">
+        <v>417</v>
+      </c>
+      <c r="J143" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>395</v>
+      </c>
+      <c r="B144" t="s">
+        <v>407</v>
+      </c>
+      <c r="C144" s="1">
+        <v>45619</v>
+      </c>
+      <c r="H144" t="s">
+        <v>417</v>
+      </c>
+      <c r="J144" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>396</v>
+      </c>
+      <c r="B145" t="s">
+        <v>408</v>
+      </c>
+      <c r="C145" s="1">
+        <v>45633</v>
+      </c>
+      <c r="H145" t="s">
+        <v>417</v>
+      </c>
+      <c r="J145" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>397</v>
+      </c>
+      <c r="B146" t="s">
+        <v>409</v>
+      </c>
+      <c r="C146" s="1">
+        <v>45647</v>
+      </c>
+      <c r="H146" t="s">
+        <v>417</v>
+      </c>
+      <c r="J146" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>398</v>
+      </c>
+      <c r="B147" t="s">
+        <v>410</v>
+      </c>
+      <c r="C147" s="1">
+        <v>45675</v>
+      </c>
+      <c r="H147" t="s">
+        <v>417</v>
+      </c>
+      <c r="J147" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>399</v>
+      </c>
+      <c r="B148" t="s">
+        <v>411</v>
+      </c>
+      <c r="C148" s="1">
+        <v>45696</v>
+      </c>
+      <c r="H148" t="s">
+        <v>417</v>
+      </c>
+      <c r="J148" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>400</v>
+      </c>
+      <c r="B149" t="s">
+        <v>412</v>
+      </c>
+      <c r="C149" s="1">
+        <v>45710</v>
+      </c>
+      <c r="H149" t="s">
+        <v>417</v>
+      </c>
+      <c r="J149" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>401</v>
+      </c>
+      <c r="B150" t="s">
+        <v>413</v>
+      </c>
+      <c r="C150" s="1">
+        <v>45731</v>
+      </c>
+      <c r="H150" t="s">
+        <v>417</v>
+      </c>
+      <c r="J150" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>402</v>
+      </c>
+      <c r="B151" t="s">
+        <v>414</v>
+      </c>
+      <c r="C151" s="1">
+        <v>45738</v>
+      </c>
+      <c r="H151" t="s">
+        <v>417</v>
+      </c>
+      <c r="J151" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>415</v>
+      </c>
+      <c r="B152" t="s">
+        <v>416</v>
+      </c>
+      <c r="C152" s="1">
+        <v>45745</v>
+      </c>
+      <c r="H152" t="s">
+        <v>417</v>
+      </c>
+      <c r="J152" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>428</v>
+      </c>
+      <c r="B153" t="s">
+        <v>439</v>
+      </c>
+      <c r="C153" s="1">
+        <v>45556</v>
+      </c>
+      <c r="D153">
+        <v>7</v>
+      </c>
+      <c r="E153" t="s">
+        <v>34</v>
+      </c>
+      <c r="H153" t="s">
+        <v>451</v>
+      </c>
+      <c r="J153" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>429</v>
+      </c>
+      <c r="B154" t="s">
+        <v>440</v>
+      </c>
+      <c r="C154" s="1">
+        <v>45570</v>
+      </c>
+      <c r="D154">
+        <v>8</v>
+      </c>
+      <c r="E154" t="s">
+        <v>298</v>
+      </c>
+      <c r="H154" t="s">
+        <v>451</v>
+      </c>
+      <c r="J154" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>430</v>
+      </c>
+      <c r="B155" t="s">
+        <v>441</v>
+      </c>
+      <c r="C155" s="1">
+        <v>45584</v>
+      </c>
+      <c r="D155" t="s">
+        <v>450</v>
+      </c>
+      <c r="E155" t="s">
+        <v>34</v>
+      </c>
+      <c r="H155" t="s">
+        <v>451</v>
+      </c>
+      <c r="J155" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>431</v>
+      </c>
+      <c r="B156" t="s">
+        <v>442</v>
+      </c>
+      <c r="C156" s="1">
+        <v>45598</v>
+      </c>
+      <c r="D156" t="s">
+        <v>161</v>
+      </c>
+      <c r="E156" t="s">
+        <v>34</v>
+      </c>
+      <c r="H156" t="s">
+        <v>451</v>
+      </c>
+      <c r="J156" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>432</v>
+      </c>
+      <c r="B157" t="s">
+        <v>496</v>
+      </c>
+      <c r="C157" s="1">
+        <v>45612</v>
+      </c>
+      <c r="D157">
+        <v>15</v>
+      </c>
+      <c r="E157" t="s">
+        <v>34</v>
+      </c>
+      <c r="H157" t="s">
+        <v>451</v>
+      </c>
+      <c r="J157" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>433</v>
+      </c>
+      <c r="B158" t="s">
+        <v>444</v>
+      </c>
+      <c r="C158" s="1">
+        <v>45626</v>
+      </c>
+      <c r="D158">
+        <v>17</v>
+      </c>
+      <c r="E158" t="s">
+        <v>45</v>
+      </c>
+      <c r="H158" t="s">
+        <v>451</v>
+      </c>
+      <c r="J158" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>434</v>
+      </c>
+      <c r="B159" t="s">
+        <v>445</v>
+      </c>
+      <c r="C159" s="1">
+        <v>45640</v>
+      </c>
+      <c r="D159" t="s">
+        <v>120</v>
+      </c>
+      <c r="E159" t="s">
+        <v>45</v>
+      </c>
+      <c r="H159" t="s">
+        <v>451</v>
+      </c>
+      <c r="J159" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>435</v>
+      </c>
+      <c r="B160" t="s">
+        <v>446</v>
+      </c>
+      <c r="C160" s="1">
+        <v>45645</v>
+      </c>
+      <c r="D160">
+        <v>11</v>
+      </c>
+      <c r="E160" t="s">
+        <v>34</v>
+      </c>
+      <c r="H160" t="s">
+        <v>451</v>
+      </c>
+      <c r="J160" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>436</v>
+      </c>
+      <c r="B161" t="s">
+        <v>447</v>
+      </c>
+      <c r="C161" s="1">
+        <v>45668</v>
+      </c>
+      <c r="D161">
+        <v>13</v>
+      </c>
+      <c r="E161" t="s">
+        <v>34</v>
+      </c>
+      <c r="H161" t="s">
+        <v>451</v>
+      </c>
+      <c r="J161" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>429</v>
+      </c>
+      <c r="B162" t="s">
+        <v>448</v>
+      </c>
+      <c r="C162" s="1">
+        <v>45682</v>
+      </c>
+      <c r="D162">
+        <v>8</v>
+      </c>
+      <c r="E162" t="s">
+        <v>298</v>
+      </c>
+      <c r="H162" t="s">
+        <v>451</v>
+      </c>
+      <c r="J162" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>437</v>
+      </c>
+      <c r="B163" t="s">
+        <v>443</v>
+      </c>
+      <c r="C163" s="1">
+        <v>45703</v>
+      </c>
+      <c r="D163">
+        <v>15</v>
+      </c>
+      <c r="E163" t="s">
+        <v>34</v>
+      </c>
+      <c r="H163" t="s">
+        <v>451</v>
+      </c>
+      <c r="J163" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>438</v>
+      </c>
+      <c r="B164" t="s">
+        <v>449</v>
+      </c>
+      <c r="C164" s="1">
+        <v>45724</v>
+      </c>
+      <c r="D164">
+        <v>9</v>
+      </c>
+      <c r="E164" t="s">
+        <v>45</v>
+      </c>
+      <c r="H164" t="s">
+        <v>451</v>
+      </c>
+      <c r="J164" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>464</v>
+      </c>
+      <c r="B165" t="s">
+        <v>465</v>
+      </c>
+      <c r="C165" s="1">
+        <v>45748</v>
+      </c>
+      <c r="D165" t="s">
+        <v>466</v>
+      </c>
+      <c r="E165" t="s">
+        <v>34</v>
+      </c>
+      <c r="H165" t="s">
+        <v>467</v>
+      </c>
+      <c r="J165" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>469</v>
+      </c>
+      <c r="B166" t="s">
+        <v>468</v>
+      </c>
+      <c r="C166" s="1">
+        <v>45749</v>
+      </c>
+      <c r="D166" t="s">
+        <v>470</v>
+      </c>
+      <c r="E166" t="s">
+        <v>34</v>
+      </c>
+      <c r="H166" t="s">
+        <v>467</v>
+      </c>
+      <c r="J166" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>471</v>
+      </c>
+      <c r="B167" t="s">
+        <v>472</v>
+      </c>
+      <c r="C167" s="1">
+        <v>45750</v>
+      </c>
+      <c r="D167" t="s">
+        <v>473</v>
+      </c>
+      <c r="E167" t="s">
+        <v>45</v>
+      </c>
+      <c r="H167" t="s">
+        <v>467</v>
+      </c>
+      <c r="J167" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>475</v>
+      </c>
+      <c r="B168" t="s">
+        <v>474</v>
+      </c>
+      <c r="C168" s="1">
+        <v>45751</v>
+      </c>
+      <c r="D168" t="s">
+        <v>450</v>
+      </c>
+      <c r="E168" t="s">
+        <v>34</v>
+      </c>
+      <c r="H168" t="s">
+        <v>467</v>
+      </c>
+      <c r="J168" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>476</v>
+      </c>
+      <c r="B169" t="s">
+        <v>477</v>
+      </c>
+      <c r="C169" s="1">
+        <v>45752</v>
+      </c>
+      <c r="D169" t="s">
+        <v>478</v>
+      </c>
+      <c r="E169" t="s">
+        <v>45</v>
+      </c>
+      <c r="H169" t="s">
+        <v>467</v>
+      </c>
+      <c r="J169" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>479</v>
+      </c>
+      <c r="B170" t="s">
+        <v>480</v>
+      </c>
+      <c r="C170" s="1">
+        <v>45753</v>
+      </c>
+      <c r="D170" t="s">
+        <v>481</v>
+      </c>
+      <c r="E170" t="s">
+        <v>45</v>
+      </c>
+      <c r="H170" t="s">
+        <v>467</v>
+      </c>
+      <c r="J170" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>482</v>
+      </c>
+      <c r="B171" t="s">
+        <v>483</v>
+      </c>
+      <c r="C171" s="1">
+        <v>45754</v>
+      </c>
+      <c r="D171" t="s">
+        <v>484</v>
+      </c>
+      <c r="E171" t="s">
+        <v>45</v>
+      </c>
+      <c r="H171" t="s">
+        <v>467</v>
+      </c>
+      <c r="J171" t="s">
+        <v>491</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>